--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_8_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_8_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2927013.076792262</v>
+        <v>2926403.154534088</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167598.0259580135</v>
+        <v>167598.0259580134</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058547</v>
+        <v>632041.4518058532</v>
       </c>
     </row>
     <row r="9">
@@ -1212,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>3.199249640013477</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>57.36479458793505</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>175.7341765707166</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>185.8624891488177</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>151.4173933538233</v>
       </c>
       <c r="I11" t="n">
-        <v>45.79480327717987</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.0853937197666</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>26.78129936760166</v>
+        <v>26.78129936760163</v>
       </c>
       <c r="U11" t="n">
-        <v>54.40690532250596</v>
+        <v>54.40690532250595</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>125.1350481182324</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>142.1517283348473</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>164.0379788037865</v>
       </c>
       <c r="Y11" t="n">
-        <v>49.21268712832001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>107.6165506667984</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>53.16980677800103</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.807977651879856</v>
+        <v>7.80797765187986</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="T12" t="n">
-        <v>185.8624891488177</v>
+        <v>19.25582326828573</v>
       </c>
       <c r="U12" t="n">
-        <v>185.8624891488177</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="V12" t="n">
-        <v>44.90418542448265</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="W12" t="n">
-        <v>70.95984808609199</v>
+        <v>70.95984808609197</v>
       </c>
       <c r="X12" t="n">
-        <v>21.56817894855101</v>
+        <v>38.04448079291505</v>
       </c>
       <c r="Y12" t="n">
-        <v>43.54362203529138</v>
+        <v>27.63955064310599</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.962380088609446</v>
+        <v>7.962380088609419</v>
       </c>
       <c r="S13" t="n">
-        <v>39.80073002985186</v>
+        <v>39.80073002985183</v>
       </c>
       <c r="T13" t="n">
-        <v>28.0431599143631</v>
+        <v>28.04315991436307</v>
       </c>
       <c r="U13" t="n">
-        <v>92.9121576940923</v>
+        <v>92.91215769409227</v>
       </c>
       <c r="V13" t="n">
-        <v>49.36427969353031</v>
+        <v>49.36427969353028</v>
       </c>
       <c r="W13" t="n">
-        <v>94.56597159841573</v>
+        <v>94.5659715984157</v>
       </c>
       <c r="X13" t="n">
-        <v>26.17471991732293</v>
+        <v>26.1747199173229</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.39653732324882</v>
+        <v>21.39653732324879</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.3425048869137</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>175.7341765707166</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>151.4173933538233</v>
+        <v>142.750652559008</v>
       </c>
       <c r="I14" t="n">
-        <v>45.79480327717985</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>32.08539371976657</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>54.40690532250596</v>
+        <v>54.40690532250593</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>115.5993644775926</v>
+        <v>142.1517283348473</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>164.0379788037865</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>185.8624891488178</v>
       </c>
     </row>
     <row r="15">
@@ -1683,19 +1683,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>185.8624891488177</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>37.22394246369881</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.807977651879856</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>19.25582326828576</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="U15" t="n">
-        <v>184.4736555975885</v>
+        <v>41.48381771359219</v>
       </c>
       <c r="V15" t="n">
-        <v>44.90418542448265</v>
+        <v>44.90418542448262</v>
       </c>
       <c r="W15" t="n">
-        <v>70.95984808609199</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="X15" t="n">
-        <v>21.56817894855101</v>
+        <v>21.56817894855098</v>
       </c>
       <c r="Y15" t="n">
-        <v>27.63955064310602</v>
+        <v>27.63955064310599</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>7.962380088609446</v>
+        <v>7.962380088609416</v>
       </c>
       <c r="S16" t="n">
-        <v>39.80073002985186</v>
+        <v>39.80073002985183</v>
       </c>
       <c r="T16" t="n">
-        <v>28.0431599143631</v>
+        <v>28.04315991436307</v>
       </c>
       <c r="U16" t="n">
-        <v>92.9121576940923</v>
+        <v>92.91215769409227</v>
       </c>
       <c r="V16" t="n">
-        <v>49.36427969353031</v>
+        <v>49.36427969353028</v>
       </c>
       <c r="W16" t="n">
-        <v>94.56597159841573</v>
+        <v>94.5659715984157</v>
       </c>
       <c r="X16" t="n">
-        <v>26.17471991732293</v>
+        <v>26.1747199173229</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.39653732324882</v>
+        <v>21.39653732324879</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>75.69574186153136</v>
+        <v>75.69574186153142</v>
       </c>
       <c r="C17" t="n">
-        <v>51.81399886487685</v>
+        <v>51.81399886487691</v>
       </c>
       <c r="D17" t="n">
-        <v>39.38066112592531</v>
+        <v>39.38066112592541</v>
       </c>
       <c r="E17" t="n">
-        <v>73.08741354533419</v>
+        <v>73.08741354533424</v>
       </c>
       <c r="F17" t="n">
-        <v>104.8077511237115</v>
+        <v>104.8077511237116</v>
       </c>
       <c r="G17" t="n">
-        <v>120.4604159560443</v>
+        <v>120.4604159560444</v>
       </c>
       <c r="H17" t="n">
-        <v>48.77063032844093</v>
+        <v>48.77063032844099</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>22.48828509285005</v>
+        <v>22.48828509285011</v>
       </c>
       <c r="W17" t="n">
-        <v>39.50496530946492</v>
+        <v>39.50496530946498</v>
       </c>
       <c r="X17" t="n">
-        <v>61.39121577840416</v>
+        <v>61.39121577840422</v>
       </c>
       <c r="Y17" t="n">
-        <v>83.89406890214792</v>
+        <v>83.89406890214798</v>
       </c>
     </row>
     <row r="18">
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>35.83843672685649</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>107.6165506667984</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>53.16980677800103</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,22 +1965,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.807977651879856</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>135.1762917966844</v>
       </c>
       <c r="S18" t="n">
-        <v>185.8624891488177</v>
+        <v>37.64338339674622</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>75.69574186153136</v>
+        <v>75.69574186153142</v>
       </c>
       <c r="C20" t="n">
-        <v>51.81399886487685</v>
+        <v>51.81399886487691</v>
       </c>
       <c r="D20" t="n">
-        <v>39.38066112592531</v>
+        <v>39.38066112592537</v>
       </c>
       <c r="E20" t="n">
-        <v>73.08741354533419</v>
+        <v>73.08741354533424</v>
       </c>
       <c r="F20" t="n">
-        <v>104.8077511237115</v>
+        <v>104.8077511237108</v>
       </c>
       <c r="G20" t="n">
         <v>120.4604159560444</v>
       </c>
       <c r="H20" t="n">
-        <v>48.77063032844092</v>
+        <v>48.77063032844097</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>22.48828509285005</v>
+        <v>22.48828509285011</v>
       </c>
       <c r="W20" t="n">
-        <v>39.50496530946492</v>
+        <v>39.50496530946498</v>
       </c>
       <c r="X20" t="n">
-        <v>61.39121577840416</v>
+        <v>61.39121577840422</v>
       </c>
       <c r="Y20" t="n">
-        <v>83.89406890214792</v>
+        <v>83.89406890214798</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>20.72341099371431</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2202,28 +2202,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.807977651879856</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>135.1762917966844</v>
       </c>
       <c r="S21" t="n">
-        <v>185.8624891488177</v>
+        <v>55.22156271783343</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>185.8624891488177</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>185.8624891488177</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>75.69574186153136</v>
+        <v>75.69574186153142</v>
       </c>
       <c r="C23" t="n">
-        <v>51.81399886487685</v>
+        <v>51.81399886487691</v>
       </c>
       <c r="D23" t="n">
-        <v>39.38066112592531</v>
+        <v>39.38066112592537</v>
       </c>
       <c r="E23" t="n">
-        <v>73.08741354533419</v>
+        <v>73.08741354533424</v>
       </c>
       <c r="F23" t="n">
-        <v>104.8077511237115</v>
+        <v>104.8077511237116</v>
       </c>
       <c r="G23" t="n">
         <v>120.4604159560444</v>
       </c>
       <c r="H23" t="n">
-        <v>48.77063032844092</v>
+        <v>48.77063032844097</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>22.48828509285005</v>
+        <v>22.48828509285011</v>
       </c>
       <c r="W23" t="n">
-        <v>39.50496530946492</v>
+        <v>39.50496530946498</v>
       </c>
       <c r="X23" t="n">
-        <v>61.39121577840416</v>
+        <v>61.39121577840422</v>
       </c>
       <c r="Y23" t="n">
-        <v>83.89406890214792</v>
+        <v>83.89406890214798</v>
       </c>
     </row>
     <row r="24">
@@ -2439,31 +2439,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>7.807977651879856</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>135.1762917966844</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>155.8997027903986</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="U24" t="n">
-        <v>185.8624891488176</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="V24" t="n">
-        <v>185.8624891488176</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>185.8624891488176</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>28.53138864559415</v>
       </c>
     </row>
     <row r="25">
@@ -2573,7 +2573,7 @@
         <v>132.9505115778078</v>
       </c>
       <c r="I26" t="n">
-        <v>27.32792150116433</v>
+        <v>27.32792150116434</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>8.314417591586135</v>
       </c>
       <c r="U26" t="n">
-        <v>35.94002354649044</v>
+        <v>35.94002354649045</v>
       </c>
       <c r="V26" t="n">
         <v>106.6681663422169</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7519568304996</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>125.8065328648607</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2676,25 +2676,25 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>7.80797765187986</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>23.83785900251711</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.7273581056228</v>
       </c>
       <c r="T27" t="n">
-        <v>0.7889414922702328</v>
+        <v>0.7889414922702329</v>
       </c>
       <c r="U27" t="n">
-        <v>159.3497925266019</v>
+        <v>23.01693593757669</v>
       </c>
       <c r="V27" t="n">
-        <v>26.43730364846712</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>52.49296631007647</v>
       </c>
       <c r="X27" t="n">
         <v>3.101297172535482</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>159.8756231108983</v>
+        <v>159.8756231108982</v>
       </c>
       <c r="C29" t="n">
-        <v>135.9938801142438</v>
+        <v>135.9938801142437</v>
       </c>
       <c r="D29" t="n">
         <v>123.5605423752922</v>
@@ -2804,13 +2804,13 @@
         <v>188.9876323730784</v>
       </c>
       <c r="G29" t="n">
-        <v>204.6402972054113</v>
+        <v>204.6402972054112</v>
       </c>
       <c r="H29" t="n">
         <v>132.9505115778078</v>
       </c>
       <c r="I29" t="n">
-        <v>27.32792150116438</v>
+        <v>27.32792150116437</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>13.61851194375112</v>
+        <v>13.6185119437511</v>
       </c>
       <c r="T29" t="n">
-        <v>8.314417591586192</v>
+        <v>8.314417591586164</v>
       </c>
       <c r="U29" t="n">
-        <v>35.94002354649049</v>
+        <v>35.94002354649047</v>
       </c>
       <c r="V29" t="n">
         <v>106.6681663422169</v>
@@ -2855,7 +2855,7 @@
         <v>123.6848465588318</v>
       </c>
       <c r="X29" t="n">
-        <v>145.5710970277711</v>
+        <v>145.571097027771</v>
       </c>
       <c r="Y29" t="n">
         <v>168.0739501515148</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>7.80797765187986</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.7889414922702896</v>
+        <v>189.6606928578408</v>
       </c>
       <c r="U30" t="n">
-        <v>219.6966649550271</v>
+        <v>23.01693593757672</v>
       </c>
       <c r="V30" t="n">
-        <v>26.43730364846718</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>52.49296631007653</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>3.10129717253551</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>9.172668867090522</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.33384825383639</v>
+        <v>21.33384825383636</v>
       </c>
       <c r="T31" t="n">
-        <v>9.576278138347631</v>
+        <v>9.576278138347602</v>
       </c>
       <c r="U31" t="n">
-        <v>74.44527591807683</v>
+        <v>74.4452759180768</v>
       </c>
       <c r="V31" t="n">
-        <v>30.89739791751484</v>
+        <v>30.89739791751481</v>
       </c>
       <c r="W31" t="n">
-        <v>76.09908982240026</v>
+        <v>76.09908982240023</v>
       </c>
       <c r="X31" t="n">
-        <v>7.707838141307462</v>
+        <v>7.707838141307434</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.929655547233352</v>
+        <v>2.929655547233324</v>
       </c>
     </row>
     <row r="32">
@@ -3108,19 +3108,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>56.96753066174931</v>
       </c>
       <c r="G33" t="n">
-        <v>124.5165486570397</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3150,10 +3150,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>7.80797765187986</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>135.1762917966844</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3165,10 +3165,10 @@
         <v>22.1892260707124</v>
       </c>
       <c r="V33" t="n">
-        <v>25.60959378160283</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>51.66525644321217</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
         <v>2.273587305671185</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0488709921947</v>
+        <v>102.0488709921946</v>
       </c>
       <c r="C35" t="n">
-        <v>78.16712799554017</v>
+        <v>78.16712799554011</v>
       </c>
       <c r="D35" t="n">
-        <v>65.73379025658863</v>
+        <v>65.73379025658858</v>
       </c>
       <c r="E35" t="n">
-        <v>99.44054267599751</v>
+        <v>99.44054267599745</v>
       </c>
       <c r="F35" t="n">
         <v>131.1608802543748</v>
       </c>
       <c r="G35" t="n">
-        <v>146.8135450867077</v>
+        <v>146.8135450867076</v>
       </c>
       <c r="H35" t="n">
-        <v>75.12375945910424</v>
+        <v>75.12375945910418</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.84141422351337</v>
+        <v>48.84141422351331</v>
       </c>
       <c r="W35" t="n">
-        <v>65.85809444012824</v>
+        <v>65.85809444012818</v>
       </c>
       <c r="X35" t="n">
-        <v>87.74434490906748</v>
+        <v>87.74434490906742</v>
       </c>
       <c r="Y35" t="n">
         <v>110.2471980328112</v>
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>135.1762917966844</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>200.1057192188163</v>
       </c>
       <c r="W36" t="n">
-        <v>73.53925654536496</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.61852379937325</v>
+        <v>16.61852379937319</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.27233770369668</v>
+        <v>18.27233770369662</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.0488709921947</v>
+        <v>102.0488709921946</v>
       </c>
       <c r="C38" t="n">
-        <v>78.16712799554017</v>
+        <v>78.16712799554011</v>
       </c>
       <c r="D38" t="n">
-        <v>65.73379025658863</v>
+        <v>65.73379025658858</v>
       </c>
       <c r="E38" t="n">
-        <v>99.44054267599751</v>
+        <v>99.44054267599745</v>
       </c>
       <c r="F38" t="n">
         <v>131.1608802543748</v>
       </c>
       <c r="G38" t="n">
-        <v>146.8135450867077</v>
+        <v>146.8135450867076</v>
       </c>
       <c r="H38" t="n">
-        <v>75.12375945910424</v>
+        <v>75.12375945910418</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.84141422351337</v>
+        <v>48.84141422351331</v>
       </c>
       <c r="W38" t="n">
-        <v>65.85809444012824</v>
+        <v>65.85809444012818</v>
       </c>
       <c r="X38" t="n">
-        <v>87.74434490906748</v>
+        <v>87.74434490906742</v>
       </c>
       <c r="Y38" t="n">
         <v>110.2471980328112</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7519568304996</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3630,16 +3630,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.7273581056228</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>70.50824475380048</v>
       </c>
       <c r="U39" t="n">
         <v>237.2285532045118</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>166.61441541996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.61852379937325</v>
+        <v>16.61852379937319</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.27233770369668</v>
+        <v>18.27233770369662</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,19 +3743,19 @@
         <v>108.6659586130794</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>96.23262087412783</v>
       </c>
       <c r="E41" t="n">
         <v>129.9393732935367</v>
       </c>
       <c r="F41" t="n">
-        <v>84.85516597346444</v>
+        <v>161.659710871914</v>
       </c>
       <c r="G41" t="n">
-        <v>177.3123757042469</v>
+        <v>13.54087495064974</v>
       </c>
       <c r="H41" t="n">
-        <v>105.6225900766434</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.612102045326111</v>
+        <v>8.612102045326122</v>
       </c>
       <c r="V41" t="n">
         <v>79.34024484105257</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>96.35692505766744</v>
       </c>
       <c r="X41" t="n">
         <v>118.2431755266067</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>79.34508456518941</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,10 +3870,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>12.79565406378831</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2285532045118</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3882,10 +3882,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>132.5477016097338</v>
+        <v>132.5477016097339</v>
       </c>
       <c r="C44" t="n">
-        <v>108.6659586130793</v>
+        <v>108.6659586130794</v>
       </c>
       <c r="D44" t="n">
-        <v>96.23262087412778</v>
+        <v>96.23262087412783</v>
       </c>
       <c r="E44" t="n">
-        <v>129.9393732935366</v>
+        <v>129.9393732935367</v>
       </c>
       <c r="F44" t="n">
-        <v>77.22845495936514</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>177.3123757042468</v>
+        <v>69.57799574591995</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>105.6225900766434</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>8.612102045326065</v>
+        <v>8.612102045326122</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>79.34024484105257</v>
       </c>
       <c r="W44" t="n">
-        <v>96.35692505766738</v>
+        <v>96.35692505766744</v>
       </c>
       <c r="X44" t="n">
-        <v>118.2431755266066</v>
+        <v>118.2431755266067</v>
       </c>
       <c r="Y44" t="n">
         <v>140.7460286503504</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7519568304996</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4098,25 +4098,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>7.807977651879856</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>135.1762917966844</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>31.46075273449024</v>
+        <v>191.7273581056228</v>
       </c>
       <c r="T45" t="n">
         <v>215.0005587592053</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>131.4696209079313</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.16504480891209</v>
+        <v>25.16504480891214</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.11735441691239</v>
+        <v>47.11735441691245</v>
       </c>
       <c r="V46" t="n">
-        <v>3.569476416350398</v>
+        <v>3.569476416350454</v>
       </c>
       <c r="W46" t="n">
-        <v>48.77116832123582</v>
+        <v>48.77116832123588</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="C8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="D8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="E8" t="n">
         <v>6.719070557086891</v>
@@ -4832,22 +4832,22 @@
         <v>6.590454258427762</v>
       </c>
       <c r="T8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="X8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="C9" t="n">
-        <v>9.565433267111001</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="D9" t="n">
-        <v>9.565433267111001</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="E9" t="n">
         <v>6.333867974168094</v>
@@ -4884,19 +4884,19 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>3.42319711481442</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L9" t="n">
-        <v>6.590454258427762</v>
+        <v>3.295227129213883</v>
       </c>
       <c r="M9" t="n">
-        <v>9.757711402041103</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="N9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="O9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
@@ -4908,25 +4908,25 @@
         <v>12.79699856005391</v>
       </c>
       <c r="S9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="T9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="U9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="V9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="W9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="X9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.333867974168094</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>579.3223954455796</v>
+        <v>225.7600980629745</v>
       </c>
       <c r="C11" t="n">
-        <v>579.3223954455796</v>
+        <v>167.8158611054643</v>
       </c>
       <c r="D11" t="n">
-        <v>579.3223954455796</v>
+        <v>167.8158611054643</v>
       </c>
       <c r="E11" t="n">
-        <v>401.8131261822296</v>
+        <v>167.8158611054643</v>
       </c>
       <c r="F11" t="n">
-        <v>401.8131261822296</v>
+        <v>167.8158611054643</v>
       </c>
       <c r="G11" t="n">
-        <v>214.0732381531207</v>
+        <v>167.8158611054643</v>
       </c>
       <c r="H11" t="n">
-        <v>61.12637617956186</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="I11" t="n">
         <v>14.86899913190542</v>
@@ -5042,49 +5042,49 @@
         <v>131.4878539688434</v>
       </c>
       <c r="K11" t="n">
-        <v>235.180295840156</v>
+        <v>315.491718226173</v>
       </c>
       <c r="L11" t="n">
-        <v>279.754310162201</v>
+        <v>360.0657325482181</v>
       </c>
       <c r="M11" t="n">
-        <v>358.2274492730763</v>
+        <v>527.5175945394435</v>
       </c>
       <c r="N11" t="n">
-        <v>431.1279297989122</v>
+        <v>711.5214587967731</v>
       </c>
       <c r="O11" t="n">
-        <v>463.0564275974101</v>
+        <v>743.449956595271</v>
       </c>
       <c r="P11" t="n">
-        <v>639.94637729713</v>
+        <v>743.449956595271</v>
       </c>
       <c r="Q11" t="n">
-        <v>743.4499565952709</v>
+        <v>743.449956595271</v>
       </c>
       <c r="R11" t="n">
-        <v>743.4499565952709</v>
+        <v>743.449956595271</v>
       </c>
       <c r="S11" t="n">
-        <v>711.040467989446</v>
+        <v>743.449956595271</v>
       </c>
       <c r="T11" t="n">
-        <v>683.988650446414</v>
+        <v>716.3981390522391</v>
       </c>
       <c r="U11" t="n">
-        <v>629.0321804236805</v>
+        <v>661.4416690295059</v>
       </c>
       <c r="V11" t="n">
-        <v>629.0321804236805</v>
+        <v>535.0426305262407</v>
       </c>
       <c r="W11" t="n">
-        <v>629.0321804236805</v>
+        <v>391.4550261476072</v>
       </c>
       <c r="X11" t="n">
-        <v>629.0321804236805</v>
+        <v>225.7600980629745</v>
       </c>
       <c r="Y11" t="n">
-        <v>579.3223954455796</v>
+        <v>225.7600980629745</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>177.2794611973594</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="C12" t="n">
-        <v>177.2794611973594</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="D12" t="n">
-        <v>177.2794611973594</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="E12" t="n">
-        <v>177.2794611973594</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="F12" t="n">
-        <v>177.2794611973594</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="G12" t="n">
-        <v>177.2794611973594</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="H12" t="n">
-        <v>177.2794611973594</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="I12" t="n">
-        <v>68.57587466523979</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="J12" t="n">
         <v>14.86899913190542</v>
       </c>
       <c r="K12" t="n">
-        <v>51.65695335259029</v>
+        <v>51.65695335259025</v>
       </c>
       <c r="L12" t="n">
         <v>167.4094400524353</v>
       </c>
       <c r="M12" t="n">
-        <v>347.2417965565291</v>
+        <v>347.241796556529</v>
       </c>
       <c r="N12" t="n">
         <v>531.2456608138586</v>
       </c>
       <c r="O12" t="n">
-        <v>661.214781062114</v>
+        <v>661.2147810621141</v>
       </c>
       <c r="P12" t="n">
-        <v>743.4499565952709</v>
+        <v>743.449956595271</v>
       </c>
       <c r="Q12" t="n">
-        <v>735.563110482261</v>
+        <v>735.5631104822611</v>
       </c>
       <c r="R12" t="n">
-        <v>735.563110482261</v>
+        <v>735.5631104822611</v>
       </c>
       <c r="S12" t="n">
-        <v>735.563110482261</v>
+        <v>547.8232224531522</v>
       </c>
       <c r="T12" t="n">
-        <v>547.8232224531521</v>
+        <v>528.3728959195303</v>
       </c>
       <c r="U12" t="n">
-        <v>360.0833344240432</v>
+        <v>340.6330078904214</v>
       </c>
       <c r="V12" t="n">
-        <v>314.7255713690103</v>
+        <v>152.8931198613125</v>
       </c>
       <c r="W12" t="n">
-        <v>243.0489571406345</v>
+        <v>81.21650563293677</v>
       </c>
       <c r="X12" t="n">
-        <v>221.2629177986638</v>
+        <v>42.78773715524481</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.2794611973594</v>
+        <v>14.86899913190542</v>
       </c>
     </row>
     <row r="13">
@@ -5206,40 +5206,40 @@
         <v>14.86899913190542</v>
       </c>
       <c r="M13" t="n">
-        <v>14.86899913190542</v>
+        <v>20.41995245936982</v>
       </c>
       <c r="N13" t="n">
-        <v>155.5753787898876</v>
+        <v>20.41995245936982</v>
       </c>
       <c r="O13" t="n">
-        <v>311.3960353724477</v>
+        <v>176.24060904193</v>
       </c>
       <c r="P13" t="n">
-        <v>311.3960353724477</v>
+        <v>311.3960353724475</v>
       </c>
       <c r="Q13" t="n">
-        <v>378.7275206060817</v>
+        <v>378.7275206060814</v>
       </c>
       <c r="R13" t="n">
-        <v>370.6847124357691</v>
+        <v>370.6847124357689</v>
       </c>
       <c r="S13" t="n">
-        <v>330.4819548298581</v>
+        <v>330.481954829858</v>
       </c>
       <c r="T13" t="n">
-        <v>302.1555306739358</v>
+        <v>302.1555306739357</v>
       </c>
       <c r="U13" t="n">
         <v>208.3048663364688</v>
       </c>
       <c r="V13" t="n">
-        <v>158.4419575551251</v>
+        <v>158.441957555125</v>
       </c>
       <c r="W13" t="n">
-        <v>62.92077412238194</v>
+        <v>62.92077412238189</v>
       </c>
       <c r="X13" t="n">
-        <v>36.48166309478302</v>
+        <v>36.48166309478299</v>
       </c>
       <c r="Y13" t="n">
         <v>14.86899913190542</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>391.5825074164708</v>
+        <v>159.0615774743377</v>
       </c>
       <c r="C14" t="n">
-        <v>391.5825074164708</v>
+        <v>159.0615774743377</v>
       </c>
       <c r="D14" t="n">
-        <v>391.5825074164708</v>
+        <v>159.0615774743377</v>
       </c>
       <c r="E14" t="n">
-        <v>214.0732381531208</v>
+        <v>159.0615774743377</v>
       </c>
       <c r="F14" t="n">
-        <v>214.0732381531208</v>
+        <v>159.0615774743377</v>
       </c>
       <c r="G14" t="n">
-        <v>214.0732381531208</v>
+        <v>159.0615774743377</v>
       </c>
       <c r="H14" t="n">
-        <v>61.12637617956185</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="I14" t="n">
         <v>14.86899913190542</v>
       </c>
       <c r="J14" t="n">
-        <v>131.4878539688434</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="K14" t="n">
-        <v>131.4878539688434</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="L14" t="n">
-        <v>176.0618682908885</v>
+        <v>198.872863389235</v>
       </c>
       <c r="M14" t="n">
-        <v>254.5350074017638</v>
+        <v>277.3460025001103</v>
       </c>
       <c r="N14" t="n">
-        <v>327.4354879275996</v>
+        <v>382.5561426382216</v>
       </c>
       <c r="O14" t="n">
-        <v>463.0564275974101</v>
+        <v>566.5600068955512</v>
       </c>
       <c r="P14" t="n">
-        <v>639.94637729713</v>
+        <v>743.449956595271</v>
       </c>
       <c r="Q14" t="n">
-        <v>743.4499565952709</v>
+        <v>743.449956595271</v>
       </c>
       <c r="R14" t="n">
-        <v>743.4499565952709</v>
+        <v>743.449956595271</v>
       </c>
       <c r="S14" t="n">
-        <v>743.4499565952709</v>
+        <v>711.0404679894463</v>
       </c>
       <c r="T14" t="n">
-        <v>743.4499565952709</v>
+        <v>711.0404679894463</v>
       </c>
       <c r="U14" t="n">
-        <v>688.4934865725377</v>
+        <v>656.083997966713</v>
       </c>
       <c r="V14" t="n">
-        <v>688.4934865725377</v>
+        <v>656.083997966713</v>
       </c>
       <c r="W14" t="n">
-        <v>571.7264517466867</v>
+        <v>512.4963935880795</v>
       </c>
       <c r="X14" t="n">
-        <v>571.7264517466867</v>
+        <v>346.8014655034467</v>
       </c>
       <c r="Y14" t="n">
-        <v>571.7264517466867</v>
+        <v>159.0615774743377</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>363.0366034437702</v>
+        <v>52.46894101442948</v>
       </c>
       <c r="C15" t="n">
-        <v>175.2967154146613</v>
+        <v>52.46894101442948</v>
       </c>
       <c r="D15" t="n">
-        <v>175.2967154146613</v>
+        <v>52.46894101442948</v>
       </c>
       <c r="E15" t="n">
-        <v>175.2967154146613</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="F15" t="n">
         <v>14.86899913190542</v>
@@ -5358,49 +5358,49 @@
         <v>14.86899913190542</v>
       </c>
       <c r="K15" t="n">
-        <v>51.65695335259026</v>
+        <v>51.65695335259022</v>
       </c>
       <c r="L15" t="n">
         <v>167.4094400524353</v>
       </c>
       <c r="M15" t="n">
-        <v>347.241796556529</v>
+        <v>347.2417965565292</v>
       </c>
       <c r="N15" t="n">
-        <v>531.2456608138586</v>
+        <v>531.2456608138588</v>
       </c>
       <c r="O15" t="n">
-        <v>661.214781062114</v>
+        <v>661.2147810621141</v>
       </c>
       <c r="P15" t="n">
-        <v>743.4499565952709</v>
+        <v>743.449956595271</v>
       </c>
       <c r="Q15" t="n">
-        <v>735.563110482261</v>
+        <v>743.449956595271</v>
       </c>
       <c r="R15" t="n">
-        <v>735.563110482261</v>
+        <v>743.449956595271</v>
       </c>
       <c r="S15" t="n">
-        <v>735.563110482261</v>
+        <v>743.449956595271</v>
       </c>
       <c r="T15" t="n">
-        <v>716.112783948639</v>
+        <v>555.7100685661621</v>
       </c>
       <c r="U15" t="n">
-        <v>529.775758092489</v>
+        <v>513.8072223908165</v>
       </c>
       <c r="V15" t="n">
-        <v>484.417995037456</v>
+        <v>468.4494593357836</v>
       </c>
       <c r="W15" t="n">
-        <v>412.7413808090803</v>
+        <v>280.7095713066747</v>
       </c>
       <c r="X15" t="n">
-        <v>390.9553414671096</v>
+        <v>258.923531964704</v>
       </c>
       <c r="Y15" t="n">
-        <v>363.0366034437702</v>
+        <v>231.0047939413646</v>
       </c>
     </row>
     <row r="16">
@@ -5416,67 +5416,67 @@
         <v>14.86899913190542</v>
       </c>
       <c r="D16" t="n">
-        <v>14.86899913190542</v>
+        <v>64.92546351971225</v>
       </c>
       <c r="E16" t="n">
-        <v>14.86899913190542</v>
+        <v>118.4533718556199</v>
       </c>
       <c r="F16" t="n">
-        <v>14.86899913190542</v>
+        <v>174.7030465953682</v>
       </c>
       <c r="G16" t="n">
-        <v>14.86899913190542</v>
+        <v>174.7030465953682</v>
       </c>
       <c r="H16" t="n">
-        <v>14.86899913190542</v>
+        <v>174.7030465953682</v>
       </c>
       <c r="I16" t="n">
-        <v>14.86899913190542</v>
+        <v>174.7030465953682</v>
       </c>
       <c r="J16" t="n">
-        <v>14.86899913190542</v>
+        <v>249.0216885993322</v>
       </c>
       <c r="K16" t="n">
-        <v>34.3629872924991</v>
+        <v>249.0216885993322</v>
       </c>
       <c r="L16" t="n">
-        <v>34.3629872924991</v>
+        <v>249.0216885993322</v>
       </c>
       <c r="M16" t="n">
-        <v>202.2290109533365</v>
+        <v>249.0216885993322</v>
       </c>
       <c r="N16" t="n">
-        <v>378.7275206060817</v>
+        <v>378.7275206060814</v>
       </c>
       <c r="O16" t="n">
-        <v>378.7275206060817</v>
+        <v>378.7275206060814</v>
       </c>
       <c r="P16" t="n">
-        <v>378.7275206060817</v>
+        <v>378.7275206060814</v>
       </c>
       <c r="Q16" t="n">
-        <v>378.7275206060817</v>
+        <v>378.7275206060814</v>
       </c>
       <c r="R16" t="n">
-        <v>370.6847124357691</v>
+        <v>370.6847124357689</v>
       </c>
       <c r="S16" t="n">
-        <v>330.4819548298581</v>
+        <v>330.481954829858</v>
       </c>
       <c r="T16" t="n">
-        <v>302.1555306739358</v>
+        <v>302.1555306739357</v>
       </c>
       <c r="U16" t="n">
         <v>208.3048663364688</v>
       </c>
       <c r="V16" t="n">
-        <v>158.4419575551251</v>
+        <v>158.441957555125</v>
       </c>
       <c r="W16" t="n">
-        <v>62.92077412238194</v>
+        <v>62.92077412238189</v>
       </c>
       <c r="X16" t="n">
-        <v>36.48166309478302</v>
+        <v>36.48166309478299</v>
       </c>
       <c r="Y16" t="n">
         <v>14.86899913190542</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>457.6173536211309</v>
+        <v>457.617353621131</v>
       </c>
       <c r="C17" t="n">
-        <v>405.2799810303463</v>
+        <v>405.2799810303461</v>
       </c>
       <c r="D17" t="n">
         <v>365.5015354486035</v>
       </c>
       <c r="E17" t="n">
-        <v>291.6758652007912</v>
+        <v>291.6758652007911</v>
       </c>
       <c r="F17" t="n">
         <v>185.8094499243148</v>
       </c>
       <c r="G17" t="n">
-        <v>64.13226208992657</v>
+        <v>64.13226208992663</v>
       </c>
       <c r="H17" t="n">
         <v>14.86899913190542</v>
       </c>
       <c r="I17" t="n">
-        <v>71.15243928262589</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="J17" t="n">
-        <v>255.1563035399554</v>
+        <v>198.872863389235</v>
       </c>
       <c r="K17" t="n">
-        <v>439.160167797285</v>
+        <v>382.8767276465646</v>
       </c>
       <c r="L17" t="n">
-        <v>483.7341821193301</v>
+        <v>490.2920835475024</v>
       </c>
       <c r="M17" t="n">
-        <v>562.2073212302054</v>
+        <v>568.7652226583778</v>
       </c>
       <c r="N17" t="n">
-        <v>635.1078017560412</v>
+        <v>641.6657031842136</v>
       </c>
       <c r="O17" t="n">
-        <v>667.0362995545391</v>
+        <v>673.5942009827115</v>
       </c>
       <c r="P17" t="n">
-        <v>743.4499565952709</v>
+        <v>673.5942009827115</v>
       </c>
       <c r="Q17" t="n">
-        <v>743.4499565952709</v>
+        <v>673.5942009827115</v>
       </c>
       <c r="R17" t="n">
-        <v>743.4499565952709</v>
+        <v>673.5942009827115</v>
       </c>
       <c r="S17" t="n">
-        <v>743.4499565952709</v>
+        <v>743.449956595271</v>
       </c>
       <c r="T17" t="n">
-        <v>743.4499565952709</v>
+        <v>743.449956595271</v>
       </c>
       <c r="U17" t="n">
-        <v>743.4499565952709</v>
+        <v>743.449956595271</v>
       </c>
       <c r="V17" t="n">
-        <v>720.7345171075435</v>
+        <v>720.7345171075436</v>
       </c>
       <c r="W17" t="n">
         <v>680.8305117444477</v>
       </c>
       <c r="X17" t="n">
-        <v>618.8191826753525</v>
+        <v>618.8191826753526</v>
       </c>
       <c r="Y17" t="n">
-        <v>534.0776989358091</v>
+        <v>534.0776989358092</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>547.8232224531521</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="C18" t="n">
-        <v>547.8232224531521</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="D18" t="n">
-        <v>387.0431062141838</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="E18" t="n">
-        <v>213.4799023355983</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="F18" t="n">
-        <v>213.4799023355983</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="G18" t="n">
-        <v>213.4799023355983</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="H18" t="n">
-        <v>177.2794611973594</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="I18" t="n">
-        <v>68.57587466523979</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="J18" t="n">
         <v>14.86899913190542</v>
       </c>
       <c r="K18" t="n">
-        <v>51.65695335259026</v>
+        <v>51.65695335259025</v>
       </c>
       <c r="L18" t="n">
         <v>167.4094400524353</v>
@@ -5604,40 +5604,40 @@
         <v>347.241796556529</v>
       </c>
       <c r="N18" t="n">
-        <v>531.2456608138586</v>
+        <v>531.2456608138588</v>
       </c>
       <c r="O18" t="n">
-        <v>661.214781062114</v>
+        <v>661.2147810621141</v>
       </c>
       <c r="P18" t="n">
-        <v>743.4499565952709</v>
+        <v>743.449956595271</v>
       </c>
       <c r="Q18" t="n">
-        <v>735.563110482261</v>
+        <v>743.449956595271</v>
       </c>
       <c r="R18" t="n">
-        <v>735.563110482261</v>
+        <v>606.9082477097312</v>
       </c>
       <c r="S18" t="n">
-        <v>547.8232224531521</v>
+        <v>568.8846281170582</v>
       </c>
       <c r="T18" t="n">
-        <v>547.8232224531521</v>
+        <v>381.1447400879493</v>
       </c>
       <c r="U18" t="n">
-        <v>547.8232224531521</v>
+        <v>381.1447400879493</v>
       </c>
       <c r="V18" t="n">
-        <v>547.8232224531521</v>
+        <v>193.4048520588405</v>
       </c>
       <c r="W18" t="n">
-        <v>547.8232224531521</v>
+        <v>193.4048520588405</v>
       </c>
       <c r="X18" t="n">
-        <v>547.8232224531521</v>
+        <v>193.4048520588405</v>
       </c>
       <c r="Y18" t="n">
-        <v>547.8232224531521</v>
+        <v>193.4048520588405</v>
       </c>
     </row>
     <row r="19">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>457.617353621131</v>
+        <v>457.6173536211307</v>
       </c>
       <c r="C20" t="n">
-        <v>405.2799810303463</v>
+        <v>405.2799810303459</v>
       </c>
       <c r="D20" t="n">
-        <v>365.5015354486035</v>
+        <v>365.5015354486031</v>
       </c>
       <c r="E20" t="n">
-        <v>291.6758652007912</v>
+        <v>291.6758652007907</v>
       </c>
       <c r="F20" t="n">
         <v>185.8094499243149</v>
       </c>
       <c r="G20" t="n">
-        <v>64.13226208992654</v>
+        <v>64.13226208992661</v>
       </c>
       <c r="H20" t="n">
         <v>14.86899913190542</v>
@@ -5753,49 +5753,49 @@
         <v>14.86899913190542</v>
       </c>
       <c r="K20" t="n">
-        <v>14.86899913190542</v>
+        <v>198.872863389235</v>
       </c>
       <c r="L20" t="n">
-        <v>59.44301345395046</v>
+        <v>382.8767276465646</v>
       </c>
       <c r="M20" t="n">
-        <v>243.44687771128</v>
+        <v>461.3498667574399</v>
       </c>
       <c r="N20" t="n">
-        <v>316.3473582371159</v>
+        <v>534.2503472832757</v>
       </c>
       <c r="O20" t="n">
-        <v>348.2758560356138</v>
+        <v>566.1788450817736</v>
       </c>
       <c r="P20" t="n">
-        <v>348.2758560356138</v>
+        <v>566.1788450817736</v>
       </c>
       <c r="Q20" t="n">
-        <v>532.2797202929434</v>
+        <v>566.1788450817736</v>
       </c>
       <c r="R20" t="n">
-        <v>550.7299328356607</v>
+        <v>667.799140476902</v>
       </c>
       <c r="S20" t="n">
-        <v>620.5856884482204</v>
+        <v>737.6548960894615</v>
       </c>
       <c r="T20" t="n">
-        <v>695.6924974694233</v>
+        <v>743.449956595271</v>
       </c>
       <c r="U20" t="n">
-        <v>743.4499565952709</v>
+        <v>743.449956595271</v>
       </c>
       <c r="V20" t="n">
         <v>720.7345171075435</v>
       </c>
       <c r="W20" t="n">
-        <v>680.8305117444477</v>
+        <v>680.8305117444474</v>
       </c>
       <c r="X20" t="n">
-        <v>618.8191826753525</v>
+        <v>618.8191826753524</v>
       </c>
       <c r="Y20" t="n">
-        <v>534.0776989358092</v>
+        <v>534.0776989358089</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>35.80173750939463</v>
+        <v>175.6491153708737</v>
       </c>
       <c r="C21" t="n">
-        <v>35.80173750939463</v>
+        <v>175.6491153708737</v>
       </c>
       <c r="D21" t="n">
-        <v>35.80173750939463</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="E21" t="n">
-        <v>35.80173750939463</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="F21" t="n">
-        <v>35.80173750939463</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="G21" t="n">
-        <v>35.80173750939463</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="H21" t="n">
         <v>14.86899913190542</v>
@@ -5838,7 +5838,7 @@
         <v>167.4094400524353</v>
       </c>
       <c r="M21" t="n">
-        <v>347.2417965565291</v>
+        <v>347.241796556529</v>
       </c>
       <c r="N21" t="n">
         <v>531.2456608138586</v>
@@ -5850,31 +5850,31 @@
         <v>743.4499565952709</v>
       </c>
       <c r="Q21" t="n">
-        <v>735.563110482261</v>
+        <v>743.449956595271</v>
       </c>
       <c r="R21" t="n">
-        <v>599.0214015967211</v>
+        <v>606.9082477097312</v>
       </c>
       <c r="S21" t="n">
-        <v>411.2815135676123</v>
+        <v>551.1288914290914</v>
       </c>
       <c r="T21" t="n">
-        <v>411.2815135676123</v>
+        <v>551.1288914290914</v>
       </c>
       <c r="U21" t="n">
-        <v>223.5416255385035</v>
+        <v>551.1288914290914</v>
       </c>
       <c r="V21" t="n">
-        <v>35.80173750939463</v>
+        <v>363.3890033999825</v>
       </c>
       <c r="W21" t="n">
-        <v>35.80173750939463</v>
+        <v>363.3890033999825</v>
       </c>
       <c r="X21" t="n">
-        <v>35.80173750939463</v>
+        <v>175.6491153708737</v>
       </c>
       <c r="Y21" t="n">
-        <v>35.80173750939463</v>
+        <v>175.6491153708737</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>457.6173536211303</v>
+        <v>457.6173536211307</v>
       </c>
       <c r="C23" t="n">
-        <v>405.2799810303457</v>
+        <v>405.2799810303461</v>
       </c>
       <c r="D23" t="n">
-        <v>365.5015354486029</v>
+        <v>365.5015354486032</v>
       </c>
       <c r="E23" t="n">
-        <v>291.6758652007904</v>
+        <v>291.6758652007909</v>
       </c>
       <c r="F23" t="n">
-        <v>185.8094499243141</v>
+        <v>185.8094499243145</v>
       </c>
       <c r="G23" t="n">
-        <v>64.13226208992654</v>
+        <v>64.13226208992661</v>
       </c>
       <c r="H23" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="I23" t="n">
-        <v>71.15243928262589</v>
+        <v>71.15243928262585</v>
       </c>
       <c r="J23" t="n">
-        <v>255.1563035399553</v>
+        <v>71.15243928262585</v>
       </c>
       <c r="K23" t="n">
-        <v>255.1563035399553</v>
+        <v>71.15243928262585</v>
       </c>
       <c r="L23" t="n">
-        <v>299.7303178620003</v>
+        <v>115.7264536046709</v>
       </c>
       <c r="M23" t="n">
-        <v>378.2034569728756</v>
+        <v>194.1995927155462</v>
       </c>
       <c r="N23" t="n">
-        <v>451.1039374987115</v>
+        <v>267.1000732413821</v>
       </c>
       <c r="O23" t="n">
-        <v>483.0324352972094</v>
+        <v>375.4422280806118</v>
       </c>
       <c r="P23" t="n">
-        <v>550.7299328356602</v>
+        <v>559.4460923379414</v>
       </c>
       <c r="Q23" t="n">
-        <v>550.7299328356602</v>
+        <v>743.449956595271</v>
       </c>
       <c r="R23" t="n">
-        <v>550.7299328356602</v>
+        <v>743.449956595271</v>
       </c>
       <c r="S23" t="n">
-        <v>620.5856884482198</v>
+        <v>743.449956595271</v>
       </c>
       <c r="T23" t="n">
-        <v>695.6924974694227</v>
+        <v>743.449956595271</v>
       </c>
       <c r="U23" t="n">
-        <v>743.4499565952704</v>
+        <v>743.449956595271</v>
       </c>
       <c r="V23" t="n">
-        <v>720.7345171075428</v>
+        <v>720.7345171075436</v>
       </c>
       <c r="W23" t="n">
-        <v>680.830511744447</v>
+        <v>680.8305117444477</v>
       </c>
       <c r="X23" t="n">
-        <v>618.8191826753518</v>
+        <v>618.8191826753525</v>
       </c>
       <c r="Y23" t="n">
-        <v>534.0776989358085</v>
+        <v>534.0776989358089</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="C24" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="D24" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="E24" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="F24" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="G24" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="H24" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="I24" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="J24" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="K24" t="n">
         <v>51.65695335259025</v>
@@ -6075,43 +6075,43 @@
         <v>167.4094400524353</v>
       </c>
       <c r="M24" t="n">
-        <v>347.2417965565287</v>
+        <v>347.241796556529</v>
       </c>
       <c r="N24" t="n">
-        <v>531.2456608138581</v>
+        <v>531.2456608138588</v>
       </c>
       <c r="O24" t="n">
-        <v>661.2147810621134</v>
+        <v>661.2147810621141</v>
       </c>
       <c r="P24" t="n">
-        <v>743.4499565952704</v>
+        <v>743.449956595271</v>
       </c>
       <c r="Q24" t="n">
-        <v>735.5631104822604</v>
+        <v>743.449956595271</v>
       </c>
       <c r="R24" t="n">
-        <v>735.5631104822604</v>
+        <v>606.9082477097312</v>
       </c>
       <c r="S24" t="n">
-        <v>735.5631104822604</v>
+        <v>606.9082477097312</v>
       </c>
       <c r="T24" t="n">
-        <v>578.0886632192315</v>
+        <v>419.1683596806223</v>
       </c>
       <c r="U24" t="n">
-        <v>390.3487751901228</v>
+        <v>231.4284716515134</v>
       </c>
       <c r="V24" t="n">
-        <v>202.6088871610141</v>
+        <v>231.4284716515134</v>
       </c>
       <c r="W24" t="n">
-        <v>202.6088871610141</v>
+        <v>231.4284716515134</v>
       </c>
       <c r="X24" t="n">
-        <v>14.86899913190541</v>
+        <v>43.68858362240456</v>
       </c>
       <c r="Y24" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="C25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="D25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="E25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="F25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="G25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="H25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="I25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="J25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="K25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="L25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="M25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="N25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="O25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="P25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="R25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="S25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="T25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="U25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="V25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="W25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="X25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.86899913190541</v>
+        <v>14.86899913190542</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>1016.247178589115</v>
       </c>
       <c r="C26" t="n">
-        <v>878.8796229181621</v>
+        <v>878.8796229181619</v>
       </c>
       <c r="D26" t="n">
-        <v>754.0709942562509</v>
+        <v>754.0709942562506</v>
       </c>
       <c r="E26" t="n">
-        <v>595.21514092827</v>
+        <v>595.2151409282698</v>
       </c>
       <c r="F26" t="n">
-        <v>404.3185425716251</v>
+        <v>404.318542571625</v>
       </c>
       <c r="G26" t="n">
-        <v>197.6111716570684</v>
+        <v>197.6111716570681</v>
       </c>
       <c r="H26" t="n">
-        <v>63.31772561887882</v>
+        <v>63.31772561887884</v>
       </c>
       <c r="I26" t="n">
         <v>35.71376450659162</v>
@@ -6230,10 +6230,10 @@
         <v>374.2939213226368</v>
       </c>
       <c r="L26" t="n">
-        <v>630.9374367389477</v>
+        <v>630.9374367389476</v>
       </c>
       <c r="M26" t="n">
-        <v>921.4800769440888</v>
+        <v>921.4800769440886</v>
       </c>
       <c r="N26" t="n">
         <v>1206.45005856419</v>
@@ -6245,7 +6245,7 @@
         <v>1645.620220114929</v>
       </c>
       <c r="Q26" t="n">
-        <v>1767.406012371325</v>
+        <v>1767.406012371326</v>
       </c>
       <c r="R26" t="n">
         <v>1785.688225329581</v>
@@ -6263,7 +6263,7 @@
         <v>1619.485074396202</v>
       </c>
       <c r="W26" t="n">
-        <v>1494.550885952938</v>
+        <v>1494.550885952937</v>
       </c>
       <c r="X26" t="n">
         <v>1347.509373803674</v>
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>313.0455722796829</v>
+        <v>225.1260387736279</v>
       </c>
       <c r="C27" t="n">
-        <v>313.0455722796829</v>
+        <v>35.71376450659162</v>
       </c>
       <c r="D27" t="n">
-        <v>313.0455722796829</v>
+        <v>35.71376450659162</v>
       </c>
       <c r="E27" t="n">
-        <v>313.0455722796829</v>
+        <v>35.71376450659162</v>
       </c>
       <c r="F27" t="n">
-        <v>313.0455722796829</v>
+        <v>35.71376450659162</v>
       </c>
       <c r="G27" t="n">
-        <v>162.7910704306934</v>
+        <v>35.71376450659162</v>
       </c>
       <c r="H27" t="n">
         <v>35.71376450659162</v>
@@ -6324,31 +6324,31 @@
         <v>783.3027311523869</v>
       </c>
       <c r="Q27" t="n">
-        <v>783.3027311523869</v>
+        <v>775.4158850393769</v>
       </c>
       <c r="R27" t="n">
-        <v>783.3027311523869</v>
+        <v>751.3372395822889</v>
       </c>
       <c r="S27" t="n">
-        <v>783.3027311523869</v>
+        <v>557.6732414958013</v>
       </c>
       <c r="T27" t="n">
-        <v>782.5058205541341</v>
+        <v>556.8763308975485</v>
       </c>
       <c r="U27" t="n">
-        <v>621.5464341636271</v>
+        <v>533.626900657572</v>
       </c>
       <c r="V27" t="n">
-        <v>594.8420870439633</v>
+        <v>290.5471825612061</v>
       </c>
       <c r="W27" t="n">
-        <v>325.4435177742546</v>
+        <v>237.5239842681996</v>
       </c>
       <c r="X27" t="n">
-        <v>322.3108943676531</v>
+        <v>234.3913608615981</v>
       </c>
       <c r="Y27" t="n">
-        <v>313.0455722796829</v>
+        <v>225.1260387736279</v>
       </c>
     </row>
     <row r="28">
@@ -6364,31 +6364,31 @@
         <v>35.71376450659162</v>
       </c>
       <c r="D28" t="n">
-        <v>35.71376450659162</v>
+        <v>104.0524418526538</v>
       </c>
       <c r="E28" t="n">
-        <v>35.71376450659162</v>
+        <v>104.0524418526538</v>
       </c>
       <c r="F28" t="n">
-        <v>35.71376450659162</v>
+        <v>104.0524418526538</v>
       </c>
       <c r="G28" t="n">
-        <v>35.71376450659162</v>
+        <v>104.0524418526538</v>
       </c>
       <c r="H28" t="n">
-        <v>35.71376450659162</v>
+        <v>104.0524418526538</v>
       </c>
       <c r="I28" t="n">
-        <v>35.71376450659162</v>
+        <v>104.0524418526538</v>
       </c>
       <c r="J28" t="n">
-        <v>74.80732964377799</v>
+        <v>104.0524418526538</v>
       </c>
       <c r="K28" t="n">
-        <v>74.80732964377799</v>
+        <v>104.0524418526538</v>
       </c>
       <c r="L28" t="n">
-        <v>74.80732964377799</v>
+        <v>260.9555662628708</v>
       </c>
       <c r="M28" t="n">
         <v>260.9555662628708</v>
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1016.247178589116</v>
+        <v>1016.247178589115</v>
       </c>
       <c r="C29" t="n">
-        <v>878.8796229181625</v>
+        <v>878.8796229181621</v>
       </c>
       <c r="D29" t="n">
-        <v>754.0709942562511</v>
+        <v>754.0709942562509</v>
       </c>
       <c r="E29" t="n">
-        <v>595.2151409282702</v>
+        <v>595.21514092827</v>
       </c>
       <c r="F29" t="n">
-        <v>404.3185425716253</v>
+        <v>404.3185425716251</v>
       </c>
       <c r="G29" t="n">
-        <v>197.6111716570685</v>
+        <v>197.6111716570684</v>
       </c>
       <c r="H29" t="n">
-        <v>63.31772561887874</v>
+        <v>63.31772561887886</v>
       </c>
       <c r="I29" t="n">
         <v>35.71376450659162</v>
       </c>
       <c r="J29" t="n">
-        <v>170.6148323017853</v>
+        <v>170.6148323017849</v>
       </c>
       <c r="K29" t="n">
-        <v>374.2939213226372</v>
+        <v>374.2939213226367</v>
       </c>
       <c r="L29" t="n">
-        <v>630.937436738948</v>
+        <v>630.9374367389476</v>
       </c>
       <c r="M29" t="n">
-        <v>921.480076944089</v>
+        <v>921.4800769440885</v>
       </c>
       <c r="N29" t="n">
-        <v>1206.450058564191</v>
+        <v>1206.45005856419</v>
       </c>
       <c r="O29" t="n">
         <v>1450.448057456954</v>
@@ -6482,7 +6482,7 @@
         <v>1645.620220114929</v>
       </c>
       <c r="Q29" t="n">
-        <v>1767.406012371326</v>
+        <v>1767.406012371325</v>
       </c>
       <c r="R29" t="n">
         <v>1785.688225329581</v>
@@ -6561,28 +6561,28 @@
         <v>783.3027311523869</v>
       </c>
       <c r="Q30" t="n">
-        <v>783.3027311523869</v>
+        <v>775.4158850393769</v>
       </c>
       <c r="R30" t="n">
-        <v>783.3027311523869</v>
+        <v>775.4158850393769</v>
       </c>
       <c r="S30" t="n">
-        <v>783.3027311523869</v>
+        <v>775.4158850393769</v>
       </c>
       <c r="T30" t="n">
-        <v>782.5058205541341</v>
+        <v>583.8394276072145</v>
       </c>
       <c r="U30" t="n">
         <v>560.589997367238</v>
       </c>
       <c r="V30" t="n">
-        <v>533.8856502475742</v>
+        <v>317.510279270872</v>
       </c>
       <c r="W30" t="n">
-        <v>480.8624519545676</v>
+        <v>48.11171000116337</v>
       </c>
       <c r="X30" t="n">
-        <v>261.354457571264</v>
+        <v>44.97908659456184</v>
       </c>
       <c r="Y30" t="n">
         <v>35.71376450659162</v>
@@ -6625,43 +6625,43 @@
         <v>35.71376450659162</v>
       </c>
       <c r="L31" t="n">
-        <v>86.85269672205573</v>
+        <v>35.71376450659162</v>
       </c>
       <c r="M31" t="n">
-        <v>86.85269672205573</v>
+        <v>86.85269672205558</v>
       </c>
       <c r="N31" t="n">
-        <v>86.85269672205573</v>
+        <v>86.85269672205558</v>
       </c>
       <c r="O31" t="n">
-        <v>260.9555662628712</v>
+        <v>260.955566262871</v>
       </c>
       <c r="P31" t="n">
-        <v>260.9555662628712</v>
+        <v>260.955566262871</v>
       </c>
       <c r="Q31" t="n">
-        <v>260.9555662628712</v>
+        <v>260.955566262871</v>
       </c>
       <c r="R31" t="n">
-        <v>260.9555662628712</v>
+        <v>260.955566262871</v>
       </c>
       <c r="S31" t="n">
-        <v>239.4062245923294</v>
+        <v>239.4062245923292</v>
       </c>
       <c r="T31" t="n">
-        <v>229.7332163717762</v>
+        <v>229.7332163717761</v>
       </c>
       <c r="U31" t="n">
-        <v>154.5359679696784</v>
+        <v>154.5359679696783</v>
       </c>
       <c r="V31" t="n">
-        <v>123.3264751237038</v>
+        <v>123.3264751237037</v>
       </c>
       <c r="W31" t="n">
-        <v>46.45870762632982</v>
+        <v>46.45870762632975</v>
       </c>
       <c r="X31" t="n">
-        <v>38.67301253410006</v>
+        <v>38.67301253410002</v>
       </c>
       <c r="Y31" t="n">
         <v>35.71376450659162</v>
@@ -6692,31 +6692,31 @@
         <v>195.6830905406869</v>
       </c>
       <c r="H32" t="n">
-        <v>62.22571507508755</v>
+        <v>62.22571507508754</v>
       </c>
       <c r="I32" t="n">
         <v>35.45782453539054</v>
       </c>
       <c r="J32" t="n">
-        <v>171.1783250987796</v>
+        <v>171.1783250987795</v>
       </c>
       <c r="K32" t="n">
-        <v>375.6768468878271</v>
+        <v>355.7608933852132</v>
       </c>
       <c r="L32" t="n">
-        <v>633.1397950723335</v>
+        <v>613.2238415697196</v>
       </c>
       <c r="M32" t="n">
-        <v>924.5018680456702</v>
+        <v>904.5859145430563</v>
       </c>
       <c r="N32" t="n">
-        <v>1210.291282433968</v>
+        <v>1190.375328931354</v>
       </c>
       <c r="O32" t="n">
-        <v>1455.108714094927</v>
+        <v>1435.192760592313</v>
       </c>
       <c r="P32" t="n">
-        <v>1651.100309521098</v>
+        <v>1631.184356018484</v>
       </c>
       <c r="Q32" t="n">
         <v>1753.789581043076</v>
@@ -6725,7 +6725,7 @@
         <v>1772.891226769527</v>
       </c>
       <c r="S32" t="n">
-        <v>1759.971224671662</v>
+        <v>1759.971224671661</v>
       </c>
       <c r="T32" t="n">
         <v>1752.408893636589</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>671.8522228969184</v>
+        <v>93.00078479978379</v>
       </c>
       <c r="C33" t="n">
-        <v>482.4399486298821</v>
+        <v>93.00078479978379</v>
       </c>
       <c r="D33" t="n">
-        <v>321.6598323909138</v>
+        <v>93.00078479978379</v>
       </c>
       <c r="E33" t="n">
-        <v>321.6598323909138</v>
+        <v>93.00078479978379</v>
       </c>
       <c r="F33" t="n">
-        <v>161.2321161081579</v>
+        <v>35.45782453539054</v>
       </c>
       <c r="G33" t="n">
         <v>35.45782453539054</v>
@@ -6780,49 +6780,49 @@
         <v>35.45782453539054</v>
       </c>
       <c r="K33" t="n">
-        <v>72.24577875607538</v>
+        <v>72.24577875607537</v>
       </c>
       <c r="L33" t="n">
         <v>187.9982654559204</v>
       </c>
       <c r="M33" t="n">
-        <v>367.8306219600142</v>
+        <v>367.8306219600141</v>
       </c>
       <c r="N33" t="n">
-        <v>570.8424953997736</v>
+        <v>570.8424953997735</v>
       </c>
       <c r="O33" t="n">
-        <v>700.8116156480289</v>
+        <v>700.8116156480288</v>
       </c>
       <c r="P33" t="n">
-        <v>783.0467911811859</v>
+        <v>783.0467911811858</v>
       </c>
       <c r="Q33" t="n">
-        <v>783.0467911811859</v>
+        <v>775.1599450681758</v>
       </c>
       <c r="R33" t="n">
-        <v>783.0467911811859</v>
+        <v>638.618236182636</v>
       </c>
       <c r="S33" t="n">
-        <v>783.0467911811859</v>
+        <v>638.618236182636</v>
       </c>
       <c r="T33" t="n">
-        <v>783.0467911811859</v>
+        <v>638.618236182636</v>
       </c>
       <c r="U33" t="n">
-        <v>760.6334315137997</v>
+        <v>616.2048765152497</v>
       </c>
       <c r="V33" t="n">
-        <v>734.7651549667261</v>
+        <v>373.1251584188838</v>
       </c>
       <c r="W33" t="n">
-        <v>682.5780272463097</v>
+        <v>103.7265891491751</v>
       </c>
       <c r="X33" t="n">
-        <v>680.2814744122984</v>
+        <v>101.4300363151638</v>
       </c>
       <c r="Y33" t="n">
-        <v>671.8522228969184</v>
+        <v>93.00078479978379</v>
       </c>
     </row>
     <row r="34">
@@ -6850,34 +6850,34 @@
         <v>35.45782453539054</v>
       </c>
       <c r="H34" t="n">
-        <v>84.12634947179362</v>
+        <v>84.1263494717936</v>
       </c>
       <c r="I34" t="n">
-        <v>84.12634947179362</v>
+        <v>133.6273312862535</v>
       </c>
       <c r="J34" t="n">
-        <v>84.12634947179362</v>
+        <v>133.6273312862535</v>
       </c>
       <c r="K34" t="n">
-        <v>84.12634947179362</v>
+        <v>133.6273312862535</v>
       </c>
       <c r="L34" t="n">
-        <v>84.12634947179362</v>
+        <v>133.6273312862535</v>
       </c>
       <c r="M34" t="n">
-        <v>84.12634947179362</v>
+        <v>133.6273312862535</v>
       </c>
       <c r="N34" t="n">
-        <v>84.12634947179362</v>
+        <v>243.6282428448106</v>
       </c>
       <c r="O34" t="n">
-        <v>100.5900602265698</v>
+        <v>243.6282428448106</v>
       </c>
       <c r="P34" t="n">
-        <v>254.8471322835383</v>
+        <v>243.6282428448106</v>
       </c>
       <c r="Q34" t="n">
-        <v>254.8471322835383</v>
+        <v>243.6282428448106</v>
       </c>
       <c r="R34" t="n">
         <v>254.8471322835383</v>
@@ -6895,10 +6895,10 @@
         <v>120.562323434732</v>
       </c>
       <c r="W34" t="n">
-        <v>44.53062650994823</v>
+        <v>44.53062650994822</v>
       </c>
       <c r="X34" t="n">
-        <v>37.58100199030872</v>
+        <v>37.58100199030871</v>
       </c>
       <c r="Y34" t="n">
         <v>35.45782453539054</v>
@@ -6917,70 +6917,70 @@
         <v>544.3523590441532</v>
       </c>
       <c r="D35" t="n">
-        <v>477.954591108205</v>
+        <v>477.9545911082051</v>
       </c>
       <c r="E35" t="n">
-        <v>377.5095985061874</v>
+        <v>377.5095985061875</v>
       </c>
       <c r="F35" t="n">
         <v>245.0238608755059</v>
       </c>
       <c r="G35" t="n">
-        <v>96.72735068691271</v>
+        <v>96.72735068691264</v>
       </c>
       <c r="H35" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="I35" t="n">
-        <v>51.03860768605</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="J35" t="n">
-        <v>243.1881600787599</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="K35" t="n">
-        <v>398.3547354665002</v>
+        <v>278.7987368864278</v>
       </c>
       <c r="L35" t="n">
-        <v>442.9287497885452</v>
+        <v>536.7527083981695</v>
       </c>
       <c r="M35" t="n">
-        <v>521.4018888994206</v>
+        <v>615.2258475090448</v>
       </c>
       <c r="N35" t="n">
-        <v>594.3023694252564</v>
+        <v>873.1798190207865</v>
       </c>
       <c r="O35" t="n">
-        <v>852.2563409369982</v>
+        <v>966.7075711785378</v>
       </c>
       <c r="P35" t="n">
-        <v>852.2563409369982</v>
+        <v>966.7075711785378</v>
       </c>
       <c r="Q35" t="n">
-        <v>852.2563409369982</v>
+        <v>966.7075711785378</v>
       </c>
       <c r="R35" t="n">
-        <v>927.7870384927701</v>
+        <v>1042.23826873431</v>
       </c>
       <c r="S35" t="n">
-        <v>971.553196265973</v>
+        <v>1042.23826873431</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.570407447819</v>
+        <v>1042.23826873431</v>
       </c>
       <c r="U35" t="n">
         <v>1042.23826873431</v>
       </c>
       <c r="V35" t="n">
-        <v>992.9035068923774</v>
+        <v>992.903506892377</v>
       </c>
       <c r="W35" t="n">
-        <v>926.3801791750761</v>
+        <v>926.3801791750759</v>
       </c>
       <c r="X35" t="n">
-        <v>837.7495277517756</v>
+        <v>837.7495277517754</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.3887216580268</v>
+        <v>726.3887216580267</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>515.6158017749959</v>
+        <v>210.2570396417225</v>
       </c>
       <c r="C36" t="n">
-        <v>515.6158017749959</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="D36" t="n">
-        <v>354.8356855360277</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="E36" t="n">
-        <v>181.2724816574421</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="F36" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="G36" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="H36" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="I36" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="J36" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="K36" t="n">
-        <v>57.63271959537104</v>
+        <v>57.63271959537103</v>
       </c>
       <c r="L36" t="n">
         <v>173.3852062952161</v>
@@ -7038,28 +7038,28 @@
         <v>768.4337320204814</v>
       </c>
       <c r="R36" t="n">
-        <v>768.4337320204814</v>
+        <v>631.8920231349416</v>
       </c>
       <c r="S36" t="n">
-        <v>768.4337320204814</v>
+        <v>631.8920231349416</v>
       </c>
       <c r="T36" t="n">
-        <v>768.4337320204814</v>
+        <v>631.8920231349416</v>
       </c>
       <c r="U36" t="n">
-        <v>768.4337320204814</v>
+        <v>631.8920231349416</v>
       </c>
       <c r="V36" t="n">
-        <v>768.4337320204814</v>
+        <v>429.7650340250261</v>
       </c>
       <c r="W36" t="n">
-        <v>694.151654701931</v>
+        <v>429.7650340250261</v>
       </c>
       <c r="X36" t="n">
-        <v>694.151654701931</v>
+        <v>210.2570396417225</v>
       </c>
       <c r="Y36" t="n">
-        <v>694.151654701931</v>
+        <v>210.2570396417225</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="C37" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="D37" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="E37" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="F37" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="G37" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="H37" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="I37" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="J37" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="K37" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="L37" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="M37" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="N37" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="O37" t="n">
-        <v>20.8447653746862</v>
+        <v>37.63115305082073</v>
       </c>
       <c r="P37" t="n">
-        <v>20.8447653746862</v>
+        <v>37.63115305082073</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.8447653746862</v>
+        <v>37.63115305082073</v>
       </c>
       <c r="R37" t="n">
-        <v>56.08805982223159</v>
+        <v>37.63115305082073</v>
       </c>
       <c r="S37" t="n">
-        <v>56.08805982223159</v>
+        <v>37.63115305082073</v>
       </c>
       <c r="T37" t="n">
-        <v>56.08805982223159</v>
+        <v>37.63115305082073</v>
       </c>
       <c r="U37" t="n">
-        <v>39.30167214609699</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="V37" t="n">
-        <v>39.30167214609699</v>
+        <v>39.30167214609692</v>
       </c>
       <c r="W37" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="X37" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.3090539891434</v>
+        <v>623.309053989143</v>
       </c>
       <c r="C38" t="n">
-        <v>544.3523590441533</v>
+        <v>544.352359044153</v>
       </c>
       <c r="D38" t="n">
-        <v>477.9545911082052</v>
+        <v>477.9545911082049</v>
       </c>
       <c r="E38" t="n">
-        <v>377.5095985061875</v>
+        <v>377.5095985061873</v>
       </c>
       <c r="F38" t="n">
         <v>245.0238608755058</v>
       </c>
       <c r="G38" t="n">
-        <v>96.72735068691271</v>
+        <v>96.72735068691264</v>
       </c>
       <c r="H38" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="I38" t="n">
-        <v>44.54189045083254</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="J38" t="n">
-        <v>236.6914428435424</v>
+        <v>212.9943177673961</v>
       </c>
       <c r="K38" t="n">
-        <v>236.6914428435424</v>
+        <v>470.9482892791378</v>
       </c>
       <c r="L38" t="n">
-        <v>281.2654571655875</v>
+        <v>515.5223036011828</v>
       </c>
       <c r="M38" t="n">
-        <v>359.7385962764628</v>
+        <v>758.3750135560631</v>
       </c>
       <c r="N38" t="n">
-        <v>432.6390768022986</v>
+        <v>831.275494081899</v>
       </c>
       <c r="O38" t="n">
-        <v>464.5675746007965</v>
+        <v>863.2039918803969</v>
       </c>
       <c r="P38" t="n">
-        <v>716.9882218562883</v>
+        <v>863.2039918803969</v>
       </c>
       <c r="Q38" t="n">
-        <v>896.0224987102011</v>
+        <v>1042.23826873431</v>
       </c>
       <c r="R38" t="n">
-        <v>971.553196265973</v>
+        <v>1042.23826873431</v>
       </c>
       <c r="S38" t="n">
-        <v>971.553196265973</v>
+        <v>1042.23826873431</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.570407447819</v>
+        <v>1042.23826873431</v>
       </c>
       <c r="U38" t="n">
         <v>1042.23826873431</v>
       </c>
       <c r="V38" t="n">
-        <v>992.9035068923774</v>
+        <v>992.903506892377</v>
       </c>
       <c r="W38" t="n">
-        <v>926.3801791750761</v>
+        <v>926.3801791750758</v>
       </c>
       <c r="X38" t="n">
-        <v>837.7495277517756</v>
+        <v>837.7495277517753</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.388721658027</v>
+        <v>726.3887216580265</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>360.5115414907119</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="C39" t="n">
-        <v>171.0992672236757</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="D39" t="n">
-        <v>171.0992672236757</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="E39" t="n">
-        <v>171.0992672236757</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="F39" t="n">
-        <v>171.0992672236757</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="G39" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="H39" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="I39" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="J39" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="K39" t="n">
-        <v>57.63271959537104</v>
+        <v>57.63271959537103</v>
       </c>
       <c r="L39" t="n">
         <v>173.3852062952161</v>
@@ -7278,25 +7278,25 @@
         <v>768.4337320204814</v>
       </c>
       <c r="S39" t="n">
-        <v>768.4337320204814</v>
+        <v>574.7697339339938</v>
       </c>
       <c r="T39" t="n">
-        <v>768.4337320204814</v>
+        <v>503.5492846877307</v>
       </c>
       <c r="U39" t="n">
-        <v>528.8089308038028</v>
+        <v>263.9244834710521</v>
       </c>
       <c r="V39" t="n">
-        <v>528.8089308038028</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="W39" t="n">
-        <v>528.8089308038028</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="X39" t="n">
-        <v>528.8089308038028</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="Y39" t="n">
-        <v>360.5115414907119</v>
+        <v>20.84476537468619</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>56.08805982223159</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="C40" t="n">
-        <v>56.08805982223159</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="D40" t="n">
-        <v>56.08805982223159</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="E40" t="n">
-        <v>56.08805982223159</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="F40" t="n">
-        <v>56.08805982223159</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="G40" t="n">
-        <v>56.08805982223159</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="H40" t="n">
-        <v>56.08805982223159</v>
+        <v>56.08805982223146</v>
       </c>
       <c r="I40" t="n">
-        <v>56.08805982223159</v>
+        <v>56.08805982223146</v>
       </c>
       <c r="J40" t="n">
-        <v>56.08805982223159</v>
+        <v>56.08805982223146</v>
       </c>
       <c r="K40" t="n">
-        <v>56.08805982223159</v>
+        <v>56.08805982223146</v>
       </c>
       <c r="L40" t="n">
-        <v>56.08805982223159</v>
+        <v>56.08805982223146</v>
       </c>
       <c r="M40" t="n">
-        <v>56.08805982223159</v>
+        <v>56.08805982223146</v>
       </c>
       <c r="N40" t="n">
-        <v>56.08805982223159</v>
+        <v>56.08805982223146</v>
       </c>
       <c r="O40" t="n">
-        <v>56.08805982223159</v>
+        <v>56.08805982223146</v>
       </c>
       <c r="P40" t="n">
-        <v>56.08805982223159</v>
+        <v>56.08805982223146</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.08805982223159</v>
+        <v>56.08805982223146</v>
       </c>
       <c r="R40" t="n">
-        <v>56.08805982223159</v>
+        <v>56.08805982223146</v>
       </c>
       <c r="S40" t="n">
-        <v>56.08805982223159</v>
+        <v>56.08805982223146</v>
       </c>
       <c r="T40" t="n">
-        <v>56.08805982223159</v>
+        <v>56.08805982223146</v>
       </c>
       <c r="U40" t="n">
-        <v>39.30167214609699</v>
+        <v>39.30167214609692</v>
       </c>
       <c r="V40" t="n">
-        <v>39.30167214609699</v>
+        <v>39.30167214609692</v>
       </c>
       <c r="W40" t="n">
-        <v>20.8447653746862</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="X40" t="n">
-        <v>56.08805982223159</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="Y40" t="n">
-        <v>56.08805982223159</v>
+        <v>20.84476537468619</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>634.905430544663</v>
+        <v>537.5752032136908</v>
       </c>
       <c r="C41" t="n">
-        <v>525.141835985997</v>
+        <v>427.8116086550247</v>
       </c>
       <c r="D41" t="n">
-        <v>525.141835985997</v>
+        <v>330.6069411054004</v>
       </c>
       <c r="E41" t="n">
-        <v>393.8899437703033</v>
+        <v>199.3550488897066</v>
       </c>
       <c r="F41" t="n">
-        <v>308.1776549082182</v>
+        <v>36.06241164534905</v>
       </c>
       <c r="G41" t="n">
-        <v>129.0742451059486</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="H41" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="I41" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="J41" t="n">
-        <v>184.3404702613922</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="K41" t="n">
-        <v>415.0742015683967</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="L41" t="n">
-        <v>692.0856087964683</v>
+        <v>261.7668690349308</v>
       </c>
       <c r="M41" t="n">
-        <v>770.5587479073436</v>
+        <v>538.7782762630036</v>
       </c>
       <c r="N41" t="n">
-        <v>843.4592284331794</v>
+        <v>815.7896834910763</v>
       </c>
       <c r="O41" t="n">
-        <v>875.3877262316773</v>
+        <v>1086.842324669993</v>
       </c>
       <c r="P41" t="n">
-        <v>892.6650348830308</v>
+        <v>1086.842324669993</v>
       </c>
       <c r="Q41" t="n">
-        <v>1041.50546942558</v>
+        <v>1086.842324669993</v>
       </c>
       <c r="R41" t="n">
-        <v>1086.842324669988</v>
+        <v>1086.842324669993</v>
       </c>
       <c r="S41" t="n">
-        <v>1100.414640131827</v>
+        <v>1100.414640131832</v>
       </c>
       <c r="T41" t="n">
-        <v>1119.238009002309</v>
+        <v>1119.238009002314</v>
       </c>
       <c r="U41" t="n">
-        <v>1110.538916027233</v>
+        <v>1110.538916027237</v>
       </c>
       <c r="V41" t="n">
-        <v>1030.397254571624</v>
+        <v>1030.397254571629</v>
       </c>
       <c r="W41" t="n">
-        <v>1030.397254571624</v>
+        <v>933.0670272406513</v>
       </c>
       <c r="X41" t="n">
-        <v>910.9597035346472</v>
+        <v>813.6294762036749</v>
       </c>
       <c r="Y41" t="n">
-        <v>768.7919978272224</v>
+        <v>671.4617704962502</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>102.5313102458941</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="C42" t="n">
-        <v>102.5313102458941</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="D42" t="n">
-        <v>102.5313102458941</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="E42" t="n">
-        <v>102.5313102458941</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="F42" t="n">
-        <v>102.5313102458941</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="G42" t="n">
-        <v>102.5313102458941</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="H42" t="n">
-        <v>102.5313102458941</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="I42" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="J42" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="K42" t="n">
-        <v>59.17271440073102</v>
+        <v>59.17271440073111</v>
       </c>
       <c r="L42" t="n">
-        <v>174.925201100576</v>
+        <v>174.9252011005761</v>
       </c>
       <c r="M42" t="n">
-        <v>354.7575576046698</v>
+        <v>354.75755760467</v>
       </c>
       <c r="N42" t="n">
-        <v>557.7694310444292</v>
+        <v>557.7694310444293</v>
       </c>
       <c r="O42" t="n">
-        <v>687.7385512926845</v>
+        <v>687.7385512926846</v>
       </c>
       <c r="P42" t="n">
-        <v>769.9737268258415</v>
+        <v>769.9737268258416</v>
       </c>
       <c r="Q42" t="n">
-        <v>769.9737268258415</v>
+        <v>769.9737268258416</v>
       </c>
       <c r="R42" t="n">
-        <v>769.9737268258415</v>
+        <v>769.9737268258416</v>
       </c>
       <c r="S42" t="n">
-        <v>769.9737268258415</v>
+        <v>769.9737268258416</v>
       </c>
       <c r="T42" t="n">
-        <v>769.9737268258415</v>
+        <v>757.0488237311059</v>
       </c>
       <c r="U42" t="n">
-        <v>769.9737268258415</v>
+        <v>517.4240225144273</v>
       </c>
       <c r="V42" t="n">
-        <v>769.9737268258415</v>
+        <v>517.4240225144273</v>
       </c>
       <c r="W42" t="n">
-        <v>500.5751575561328</v>
+        <v>248.0254532447186</v>
       </c>
       <c r="X42" t="n">
-        <v>281.0671631728292</v>
+        <v>248.0254532447186</v>
       </c>
       <c r="Y42" t="n">
-        <v>281.0671631728292</v>
+        <v>22.38476018004628</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="C43" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="D43" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="E43" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="F43" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="G43" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="H43" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="I43" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="J43" t="n">
-        <v>22.38476018004619</v>
+        <v>61.88502718790293</v>
       </c>
       <c r="K43" t="n">
-        <v>22.38476018004619</v>
+        <v>61.88502718790293</v>
       </c>
       <c r="L43" t="n">
-        <v>22.38476018004619</v>
+        <v>61.88502718790293</v>
       </c>
       <c r="M43" t="n">
-        <v>22.38476018004619</v>
+        <v>61.88502718790293</v>
       </c>
       <c r="N43" t="n">
-        <v>22.38476018004619</v>
+        <v>61.88502718790293</v>
       </c>
       <c r="O43" t="n">
-        <v>22.38476018004619</v>
+        <v>61.88502718790293</v>
       </c>
       <c r="P43" t="n">
-        <v>22.38476018004619</v>
+        <v>61.88502718790293</v>
       </c>
       <c r="Q43" t="n">
-        <v>122.8473855886308</v>
+        <v>61.88502718790293</v>
       </c>
       <c r="R43" t="n">
-        <v>122.8473855886308</v>
+        <v>99.33912614458762</v>
       </c>
       <c r="S43" t="n">
-        <v>122.8473855886308</v>
+        <v>105.2732586594423</v>
       </c>
       <c r="T43" t="n">
-        <v>122.8473855886308</v>
+        <v>122.8473855886309</v>
       </c>
       <c r="U43" t="n">
-        <v>75.25409829882027</v>
+        <v>75.25409829882035</v>
       </c>
       <c r="V43" t="n">
-        <v>71.64856656513294</v>
+        <v>71.64856656513302</v>
       </c>
       <c r="W43" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="X43" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="Y43" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>617.7168646692949</v>
+        <v>537.5752032136909</v>
       </c>
       <c r="C44" t="n">
-        <v>507.9532701106288</v>
+        <v>427.8116086550249</v>
       </c>
       <c r="D44" t="n">
-        <v>410.7486025610049</v>
+        <v>330.6069411054007</v>
       </c>
       <c r="E44" t="n">
-        <v>279.4967103453113</v>
+        <v>199.3550488897063</v>
       </c>
       <c r="F44" t="n">
-        <v>201.4881699823157</v>
+        <v>199.3550488897063</v>
       </c>
       <c r="G44" t="n">
-        <v>22.38476018004619</v>
+        <v>129.0742451059488</v>
       </c>
       <c r="H44" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="I44" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="J44" t="n">
-        <v>166.8815132811824</v>
+        <v>146.3472867530614</v>
       </c>
       <c r="K44" t="n">
-        <v>397.615244588187</v>
+        <v>377.0810180600659</v>
       </c>
       <c r="L44" t="n">
-        <v>442.1892589102321</v>
+        <v>654.0924252881387</v>
       </c>
       <c r="M44" t="n">
-        <v>520.6623980211074</v>
+        <v>732.565564399014</v>
       </c>
       <c r="N44" t="n">
-        <v>593.5628785469432</v>
+        <v>1009.576971627087</v>
       </c>
       <c r="O44" t="n">
-        <v>864.6155197258597</v>
+        <v>1041.505469425585</v>
       </c>
       <c r="P44" t="n">
-        <v>1086.842324669988</v>
+        <v>1041.505469425585</v>
       </c>
       <c r="Q44" t="n">
-        <v>1086.842324669988</v>
+        <v>1041.505469425585</v>
       </c>
       <c r="R44" t="n">
-        <v>1086.842324669988</v>
+        <v>1086.842324669993</v>
       </c>
       <c r="S44" t="n">
-        <v>1100.414640131827</v>
+        <v>1100.414640131832</v>
       </c>
       <c r="T44" t="n">
-        <v>1119.238009002309</v>
+        <v>1119.238009002314</v>
       </c>
       <c r="U44" t="n">
-        <v>1110.538916027233</v>
+        <v>1110.538916027237</v>
       </c>
       <c r="V44" t="n">
-        <v>1110.538916027233</v>
+        <v>1030.397254571629</v>
       </c>
       <c r="W44" t="n">
-        <v>1013.208688696255</v>
+        <v>933.0670272406516</v>
       </c>
       <c r="X44" t="n">
-        <v>893.7711376592789</v>
+        <v>813.629476203675</v>
       </c>
       <c r="Y44" t="n">
-        <v>751.6034319518543</v>
+        <v>671.4617704962503</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>172.6392620290356</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="C45" t="n">
-        <v>172.6392620290356</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="D45" t="n">
-        <v>172.6392620290356</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="E45" t="n">
-        <v>172.6392620290356</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="F45" t="n">
-        <v>172.6392620290356</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="G45" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="H45" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="I45" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="J45" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="K45" t="n">
-        <v>59.17271440073102</v>
+        <v>59.17271440073111</v>
       </c>
       <c r="L45" t="n">
-        <v>174.925201100576</v>
+        <v>174.9252011005761</v>
       </c>
       <c r="M45" t="n">
-        <v>354.7575576046698</v>
+        <v>354.75755760467</v>
       </c>
       <c r="N45" t="n">
-        <v>557.7694310444292</v>
+        <v>557.7694310444293</v>
       </c>
       <c r="O45" t="n">
-        <v>687.7385512926845</v>
+        <v>687.7385512926846</v>
       </c>
       <c r="P45" t="n">
-        <v>769.9737268258415</v>
+        <v>769.9737268258416</v>
       </c>
       <c r="Q45" t="n">
-        <v>762.0868807128315</v>
+        <v>769.9737268258416</v>
       </c>
       <c r="R45" t="n">
-        <v>625.5451718272917</v>
+        <v>769.9737268258416</v>
       </c>
       <c r="S45" t="n">
-        <v>593.766633711645</v>
+        <v>576.3097287393539</v>
       </c>
       <c r="T45" t="n">
-        <v>376.59435213669</v>
+        <v>359.137447164399</v>
       </c>
       <c r="U45" t="n">
-        <v>376.59435213669</v>
+        <v>226.3398502877007</v>
       </c>
       <c r="V45" t="n">
-        <v>376.59435213669</v>
+        <v>226.3398502877007</v>
       </c>
       <c r="W45" t="n">
-        <v>351.1751149559707</v>
+        <v>200.9206131069814</v>
       </c>
       <c r="X45" t="n">
-        <v>351.1751149559707</v>
+        <v>200.9206131069814</v>
       </c>
       <c r="Y45" t="n">
-        <v>351.1751149559707</v>
+        <v>200.9206131069814</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="C46" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="D46" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="E46" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="F46" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="G46" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="H46" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="I46" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="J46" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="K46" t="n">
-        <v>122.8473855886307</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="L46" t="n">
-        <v>122.8473855886307</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="M46" t="n">
-        <v>122.8473855886307</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="N46" t="n">
-        <v>122.8473855886307</v>
+        <v>122.8473855886309</v>
       </c>
       <c r="O46" t="n">
-        <v>122.8473855886307</v>
+        <v>122.8473855886309</v>
       </c>
       <c r="P46" t="n">
-        <v>122.8473855886307</v>
+        <v>122.8473855886309</v>
       </c>
       <c r="Q46" t="n">
-        <v>122.8473855886307</v>
+        <v>122.8473855886309</v>
       </c>
       <c r="R46" t="n">
-        <v>122.8473855886307</v>
+        <v>122.8473855886309</v>
       </c>
       <c r="S46" t="n">
-        <v>122.8473855886307</v>
+        <v>122.8473855886309</v>
       </c>
       <c r="T46" t="n">
-        <v>122.8473855886307</v>
+        <v>122.8473855886309</v>
       </c>
       <c r="U46" t="n">
-        <v>75.25409829882015</v>
+        <v>75.25409829882035</v>
       </c>
       <c r="V46" t="n">
-        <v>71.64856656513288</v>
+        <v>71.64856656513302</v>
       </c>
       <c r="W46" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="X46" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
       <c r="Y46" t="n">
-        <v>22.38476018004619</v>
+        <v>22.38476018004628</v>
       </c>
     </row>
   </sheetData>
@@ -8532,22 +8532,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.3658051887314</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>172.23559297146</v>
+        <v>172.1063303597423</v>
       </c>
       <c r="M9" t="n">
         <v>176.6027710248758</v>
       </c>
       <c r="N9" t="n">
-        <v>163.3068757699624</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>173.9674182222222</v>
+        <v>177.1666678622357</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>166.6480266854964</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8781,7 +8781,7 @@
         <v>291.413849299441</v>
       </c>
       <c r="O12" t="n">
-        <v>255.2227828913207</v>
+        <v>255.2227828913208</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9252,7 +9252,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>291.413849299441</v>
+        <v>291.4138492994412</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9489,7 +9489,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>291.413849299441</v>
+        <v>291.4138492994411</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9723,10 +9723,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>301.7768813099996</v>
+        <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>291.4138492994408</v>
+        <v>291.4138492994412</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23258,25 +23258,25 @@
         <v>178.3425048869137</v>
       </c>
       <c r="C11" t="n">
-        <v>154.4607618902592</v>
+        <v>97.09596730232414</v>
       </c>
       <c r="D11" t="n">
         <v>142.0274241513077</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>175.7341765707165</v>
       </c>
       <c r="F11" t="n">
         <v>207.4545141490939</v>
       </c>
       <c r="G11" t="n">
-        <v>37.244689832609</v>
+        <v>223.1071789814267</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>45.79480327717984</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>32.08539371976657</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>125.1350481182324</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>142.1517283348473</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>164.0379788037865</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>137.3281447992103</v>
+        <v>186.5408319275303</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>178.3425048869137</v>
       </c>
       <c r="C14" t="n">
         <v>154.4607618902592</v>
@@ -23501,7 +23501,7 @@
         <v>142.0274241513077</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>175.7341765707165</v>
       </c>
       <c r="F14" t="n">
         <v>207.4545141490939</v>
@@ -23510,10 +23510,10 @@
         <v>223.1071789814267</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>8.666740794815288</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>45.79480327717983</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.08539371976656</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>26.78129936760166</v>
+        <v>26.78129936760163</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>125.1350481182324</v>
       </c>
       <c r="W14" t="n">
-        <v>26.55236385725473</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>164.0379788037865</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>186.5408319275303</v>
+        <v>0.6783427787125049</v>
       </c>
     </row>
     <row r="15">
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -25631,19 +25631,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>96.23262087412783</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>76.80454489844959</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>163.7715007535971</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>105.6225900766434</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>96.35692505766744</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25874,13 +25874,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>84.43125591254883</v>
+        <v>161.659710871914</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>107.7343799583269</v>
       </c>
       <c r="H44" t="n">
-        <v>105.6225900766434</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>79.34024484105251</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>736395.5310226368</v>
+        <v>736395.5310226369</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>736395.5310226368</v>
+        <v>736395.5310226369</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>837835.3954176367</v>
+        <v>837835.395417637</v>
       </c>
       <c r="C2" t="n">
         <v>837835.3954176367</v>
       </c>
       <c r="D2" t="n">
-        <v>838319.249933192</v>
+        <v>838319.2499331923</v>
       </c>
       <c r="E2" t="n">
-        <v>742120.2384602615</v>
+        <v>742120.2384602613</v>
       </c>
       <c r="F2" t="n">
-        <v>742120.2384602611</v>
+        <v>742120.2384602609</v>
       </c>
       <c r="G2" t="n">
-        <v>839532.6214156098</v>
+        <v>839532.62141561</v>
       </c>
       <c r="H2" t="n">
-        <v>839532.6214156098</v>
+        <v>839532.62141561</v>
       </c>
       <c r="I2" t="n">
-        <v>839532.6214156097</v>
+        <v>839532.62141561</v>
       </c>
       <c r="J2" t="n">
-        <v>839532.6214156094</v>
+        <v>839532.6214156096</v>
       </c>
       <c r="K2" t="n">
-        <v>839532.6214156094</v>
+        <v>839532.6214156096</v>
       </c>
       <c r="L2" t="n">
-        <v>839532.6214156091</v>
+        <v>839532.6214156093</v>
       </c>
       <c r="M2" t="n">
-        <v>839532.6214156098</v>
+        <v>839532.6214156101</v>
       </c>
       <c r="N2" t="n">
         <v>839532.6214156101</v>
@@ -26353,7 +26353,7 @@
         <v>819161.040267027</v>
       </c>
       <c r="P2" t="n">
-        <v>819161.040267027</v>
+        <v>819161.0402670271</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>82117.4104203059</v>
+        <v>82117.41042030582</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>82779.57831379738</v>
+        <v>82779.57831379729</v>
       </c>
       <c r="M3" t="n">
-        <v>45599.23380147138</v>
+        <v>45599.23380147143</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69485.3350230194</v>
+        <v>69485.33502301977</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,10 +26421,10 @@
         <v>424945.6323940753</v>
       </c>
       <c r="D4" t="n">
-        <v>424861.9413331363</v>
+        <v>424861.9413331364</v>
       </c>
       <c r="E4" t="n">
-        <v>327007.8687378253</v>
+        <v>327007.8687378254</v>
       </c>
       <c r="F4" t="n">
         <v>327007.8687378253</v>
@@ -26448,16 +26448,16 @@
         <v>386240.5627013224</v>
       </c>
       <c r="M4" t="n">
-        <v>385442.8790700378</v>
+        <v>385442.8790700379</v>
       </c>
       <c r="N4" t="n">
         <v>385442.8790700379</v>
       </c>
       <c r="O4" t="n">
-        <v>373301.8258101726</v>
+        <v>373301.8258101728</v>
       </c>
       <c r="P4" t="n">
-        <v>373301.8258101727</v>
+        <v>373301.8258101728</v>
       </c>
     </row>
     <row r="5">
@@ -26482,10 +26482,10 @@
         <v>29887.52290937394</v>
       </c>
       <c r="G5" t="n">
-        <v>38516.93363015481</v>
+        <v>38516.9336301548</v>
       </c>
       <c r="H5" t="n">
-        <v>38516.93363015481</v>
+        <v>38516.9336301548</v>
       </c>
       <c r="I5" t="n">
         <v>38516.9336301548</v>
@@ -26506,10 +26506,10 @@
         <v>40843.03476178247</v>
       </c>
       <c r="O5" t="n">
-        <v>39449.42462267015</v>
+        <v>39449.42462267022</v>
       </c>
       <c r="P5" t="n">
-        <v>39449.42462267016</v>
+        <v>39449.42462267022</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>379262.1630235615</v>
+        <v>379257.6966393565</v>
       </c>
       <c r="C6" t="n">
-        <v>379262.1630235615</v>
+        <v>379257.6966393563</v>
       </c>
       <c r="D6" t="n">
-        <v>378641.4113062655</v>
+        <v>378638.2182234172</v>
       </c>
       <c r="E6" t="n">
-        <v>95554.63277987058</v>
+        <v>95298.28440367199</v>
       </c>
       <c r="F6" t="n">
-        <v>385224.8468130619</v>
+        <v>384968.4984368634</v>
       </c>
       <c r="G6" t="n">
-        <v>333477.7437683177</v>
+        <v>333477.743768318</v>
       </c>
       <c r="H6" t="n">
-        <v>415595.1541886237</v>
+        <v>415595.1541886238</v>
       </c>
       <c r="I6" t="n">
-        <v>415595.1541886235</v>
+        <v>415595.1541886238</v>
       </c>
       <c r="J6" t="n">
-        <v>248569.5010793229</v>
+        <v>248569.5010793232</v>
       </c>
       <c r="K6" t="n">
-        <v>405995.2318687452</v>
+        <v>405995.2318687455</v>
       </c>
       <c r="L6" t="n">
-        <v>323355.3731596415</v>
+        <v>323355.3731596417</v>
       </c>
       <c r="M6" t="n">
-        <v>367647.4737823182</v>
+        <v>367647.4737823184</v>
       </c>
       <c r="N6" t="n">
         <v>413246.7075837898</v>
       </c>
       <c r="O6" t="n">
-        <v>336924.4548111648</v>
+        <v>336870.8453870889</v>
       </c>
       <c r="P6" t="n">
-        <v>406409.7898341841</v>
+        <v>406356.1804101088</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>195.7447354909196</v>
       </c>
       <c r="G2" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="H2" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="I2" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="J2" t="n">
         <v>214.2116172669351</v>
@@ -26716,16 +26716,16 @@
         <v>215.0393271337994</v>
       </c>
       <c r="M2" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="N2" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="O2" t="n">
         <v>241.5395387680994</v>
       </c>
       <c r="P2" t="n">
-        <v>241.5395387680995</v>
+        <v>241.5395387680994</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>97.75318353851831</v>
+        <v>97.7531835385183</v>
       </c>
       <c r="F3" t="n">
-        <v>97.75318353851831</v>
+        <v>97.75318353851833</v>
       </c>
       <c r="G3" t="n">
-        <v>97.75318353851831</v>
+        <v>97.7531835385183</v>
       </c>
       <c r="H3" t="n">
-        <v>97.75318353851831</v>
+        <v>97.7531835385183</v>
       </c>
       <c r="I3" t="n">
-        <v>97.75318353851831</v>
+        <v>97.7531835385183</v>
       </c>
       <c r="J3" t="n">
-        <v>97.75318353851831</v>
+        <v>97.7531835385183</v>
       </c>
       <c r="K3" t="n">
-        <v>97.75318353851831</v>
+        <v>97.7531835385183</v>
       </c>
       <c r="L3" t="n">
-        <v>97.75318353851831</v>
+        <v>97.7531835385183</v>
       </c>
       <c r="M3" t="n">
-        <v>97.75318353851831</v>
+        <v>97.7531835385183</v>
       </c>
       <c r="N3" t="n">
-        <v>97.75318353851831</v>
+        <v>97.7531835385183</v>
       </c>
       <c r="O3" t="n">
-        <v>97.75318353851831</v>
+        <v>97.7531835385183</v>
       </c>
       <c r="P3" t="n">
-        <v>97.75318353851831</v>
+        <v>97.7531835385183</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>185.8624891488177</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="F4" t="n">
-        <v>185.8624891488177</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="G4" t="n">
-        <v>185.8624891488177</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="H4" t="n">
-        <v>185.8624891488177</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="I4" t="n">
-        <v>185.8624891488176</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="J4" t="n">
         <v>446.4220563323952</v>
@@ -26817,19 +26817,19 @@
         <v>446.4220563323952</v>
       </c>
       <c r="L4" t="n">
-        <v>443.2228066923818</v>
+        <v>443.2228066923817</v>
       </c>
       <c r="M4" t="n">
-        <v>260.5595671835775</v>
+        <v>260.5595671835774</v>
       </c>
       <c r="N4" t="n">
-        <v>260.5595671835775</v>
+        <v>260.5595671835774</v>
       </c>
       <c r="O4" t="n">
-        <v>279.8095022505773</v>
+        <v>279.8095022505785</v>
       </c>
       <c r="P4" t="n">
-        <v>279.8095022505773</v>
+        <v>279.8095022505785</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>102.6467630253824</v>
+        <v>102.6467630253823</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>103.4744728922467</v>
+        <v>103.4744728922466</v>
       </c>
       <c r="M2" t="n">
-        <v>56.99904225183923</v>
+        <v>56.99904225183928</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.06602362401355</v>
+        <v>81.06602362401361</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>97.75318353851831</v>
+        <v>97.7531835385183</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.5595671835777</v>
+        <v>260.5595671835775</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>19.2499350669998</v>
+        <v>19.2499350670011</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>102.6467630253824</v>
+        <v>102.6467630253823</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E8" t="n">
-        <v>371.4789120616362</v>
+        <v>371.6088275148272</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27904,7 +27904,7 @@
         <v>236.785106778059</v>
       </c>
       <c r="T8" t="n">
-        <v>224.3762098531791</v>
+        <v>224.246294399988</v>
       </c>
       <c r="U8" t="n">
         <v>250.1830790232068</v>
@@ -27932,13 +27932,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C9" t="n">
-        <v>184.3189018843524</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E9" t="n">
-        <v>168.6283221997862</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F9" t="n">
         <v>155.6241894799149</v>
@@ -27980,13 +27980,13 @@
         <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>192.4336248079265</v>
       </c>
       <c r="T9" t="n">
         <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2423862021824</v>
+        <v>234.0431365621689</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -28114,25 +28114,25 @@
         <v>195.7447354909196</v>
       </c>
       <c r="K11" t="n">
-        <v>113.2150039845722</v>
+        <v>194.3376528593369</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>89.87749785893952</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>112.2256401328219</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>195.7447354909196</v>
+        <v>17.06801862251572</v>
       </c>
       <c r="Q11" t="n">
-        <v>195.7447354909196</v>
+        <v>91.1956654927974</v>
       </c>
       <c r="R11" t="n">
         <v>195.7447354909196</v>
@@ -28187,10 +28187,10 @@
         <v>125.8065328648607</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>107.6165506667984</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>53.16980677800104</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>135.1762917966844</v>
       </c>
       <c r="S12" t="n">
-        <v>191.7273581056228</v>
+        <v>5.864868956804997</v>
       </c>
       <c r="T12" t="n">
-        <v>29.13806961038762</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="U12" t="n">
-        <v>51.3660640556941</v>
+        <v>51.36606405569407</v>
       </c>
       <c r="V12" t="n">
-        <v>195.7447354909196</v>
+        <v>54.78643176658449</v>
       </c>
       <c r="W12" t="n">
         <v>195.7447354909196</v>
       </c>
       <c r="X12" t="n">
+        <v>179.2684336465556</v>
+      </c>
+      <c r="Y12" t="n">
         <v>195.7447354909196</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>179.8406640987342</v>
       </c>
     </row>
     <row r="13">
@@ -28272,22 +28272,22 @@
         <v>120.6754001333802</v>
       </c>
       <c r="K13" t="n">
-        <v>67.74612116979594</v>
+        <v>67.74612116979596</v>
       </c>
       <c r="L13" t="n">
         <v>33.06823020862724</v>
       </c>
       <c r="M13" t="n">
-        <v>26.18309542946768</v>
+        <v>31.79011899256305</v>
       </c>
       <c r="N13" t="n">
-        <v>159.5910688295429</v>
+        <v>17.46341260935884</v>
       </c>
       <c r="O13" t="n">
         <v>195.7447354909196</v>
       </c>
       <c r="P13" t="n">
-        <v>59.22410283383118</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="Q13" t="n">
         <v>195.7447354909196</v>
@@ -28348,28 +28348,28 @@
         <v>195.7447354909196</v>
       </c>
       <c r="J14" t="n">
-        <v>195.7447354909196</v>
+        <v>77.94791242330544</v>
       </c>
       <c r="K14" t="n">
-        <v>8.475163710519119</v>
+        <v>8.475163710519112</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>140.8382322578632</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>32.63601981037912</v>
       </c>
       <c r="O14" t="n">
-        <v>104.7398402740531</v>
+        <v>153.6114812715471</v>
       </c>
       <c r="P14" t="n">
         <v>195.7447354909196</v>
       </c>
       <c r="Q14" t="n">
-        <v>195.7447354909196</v>
+        <v>91.19566549279739</v>
       </c>
       <c r="R14" t="n">
         <v>195.7447354909196</v>
@@ -28403,19 +28403,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.655662375548189</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>134.6036293761009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>148.7519568304996</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>7.807977651879852</v>
       </c>
       <c r="R15" t="n">
         <v>135.1762917966844</v>
@@ -28457,16 +28457,16 @@
         <v>191.7273581056228</v>
       </c>
       <c r="T15" t="n">
+        <v>29.1380696103876</v>
+      </c>
+      <c r="U15" t="n">
         <v>195.7447354909196</v>
-      </c>
-      <c r="U15" t="n">
-        <v>52.75489760692329</v>
       </c>
       <c r="V15" t="n">
         <v>195.7447354909196</v>
       </c>
       <c r="W15" t="n">
-        <v>195.7447354909196</v>
+        <v>80.84209442819383</v>
       </c>
       <c r="X15" t="n">
         <v>195.7447354909196</v>
@@ -28488,13 +28488,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="G16" t="n">
         <v>168.7069388953345</v>
@@ -28506,25 +28506,25 @@
         <v>165.0383354020217</v>
       </c>
       <c r="J16" t="n">
-        <v>120.6754001333802</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="K16" t="n">
-        <v>87.43701830170875</v>
+        <v>67.74612116979594</v>
       </c>
       <c r="L16" t="n">
         <v>33.06823020862724</v>
       </c>
       <c r="M16" t="n">
-        <v>195.7447354909196</v>
+        <v>26.18309542946768</v>
       </c>
       <c r="N16" t="n">
-        <v>195.7447354909196</v>
+        <v>148.4794045353682</v>
       </c>
       <c r="O16" t="n">
-        <v>38.35013288227302</v>
+        <v>38.35013288227301</v>
       </c>
       <c r="P16" t="n">
-        <v>59.22410283383118</v>
+        <v>59.22410283383117</v>
       </c>
       <c r="Q16" t="n">
         <v>127.7331342448247</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="C17" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="D17" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="E17" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="F17" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="G17" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="H17" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="I17" t="n">
-        <v>298.391498516302</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="J17" t="n">
         <v>263.8104015721232</v>
@@ -28591,7 +28591,7 @@
         <v>194.3376528593369</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>63.47610260494225</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28603,7 +28603,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>94.25353078487105</v>
+        <v>17.06801862251572</v>
       </c>
       <c r="Q17" t="n">
         <v>91.1956654927974</v>
@@ -28612,7 +28612,7 @@
         <v>195.7447354909196</v>
       </c>
       <c r="S17" t="n">
-        <v>227.8301292106862</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="T17" t="n">
         <v>222.5260348585213</v>
@@ -28621,16 +28621,16 @@
         <v>250.1516408134256</v>
       </c>
       <c r="V17" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="W17" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="X17" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="Y17" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
     </row>
     <row r="18">
@@ -28640,16 +28640,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -28658,13 +28658,13 @@
         <v>148.7519568304996</v>
       </c>
       <c r="H18" t="n">
-        <v>89.96809613800426</v>
+        <v>125.8065328648607</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.6165506667984</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>53.16980677800104</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,22 +28685,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>7.80797765187986</v>
       </c>
       <c r="R18" t="n">
-        <v>135.1762917966844</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>5.864868956805024</v>
+        <v>154.0839747088765</v>
       </c>
       <c r="T18" t="n">
-        <v>215.0005587592053</v>
+        <v>29.1380696103876</v>
       </c>
       <c r="U18" t="n">
         <v>237.2285532045118</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>54.78643176658449</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28746,16 +28746,16 @@
         <v>120.6754001333802</v>
       </c>
       <c r="K19" t="n">
-        <v>67.74612116979594</v>
+        <v>67.74612116979596</v>
       </c>
       <c r="L19" t="n">
         <v>33.06823020862724</v>
       </c>
       <c r="M19" t="n">
-        <v>26.18309542946768</v>
+        <v>26.18309542946769</v>
       </c>
       <c r="N19" t="n">
-        <v>17.46341260935883</v>
+        <v>17.46341260935884</v>
       </c>
       <c r="O19" t="n">
         <v>38.35013288227302</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="C20" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="D20" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="E20" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="F20" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="G20" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="H20" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="I20" t="n">
         <v>241.5395387680994</v>
@@ -28825,13 +28825,13 @@
         <v>77.94791242330545</v>
       </c>
       <c r="K20" t="n">
-        <v>8.475163710519119</v>
+        <v>194.3376528593369</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>140.8382322578632</v>
       </c>
       <c r="M20" t="n">
-        <v>106.5966920671255</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28840,34 +28840,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>17.06801862251571</v>
+        <v>17.06801862251572</v>
       </c>
       <c r="Q20" t="n">
-        <v>277.0581546416151</v>
+        <v>91.1956654927974</v>
       </c>
       <c r="R20" t="n">
-        <v>214.3813138168967</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="S20" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="T20" t="n">
-        <v>298.391498516302</v>
+        <v>228.3796313290359</v>
       </c>
       <c r="U20" t="n">
-        <v>298.391498516302</v>
+        <v>250.1516408134256</v>
       </c>
       <c r="V20" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="W20" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="X20" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="Y20" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
     </row>
     <row r="21">
@@ -28883,7 +28883,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28895,13 +28895,13 @@
         <v>148.7519568304996</v>
       </c>
       <c r="H21" t="n">
-        <v>105.0831218711464</v>
+        <v>125.8065328648607</v>
       </c>
       <c r="I21" t="n">
         <v>107.6165506667984</v>
       </c>
       <c r="J21" t="n">
-        <v>53.16980677800103</v>
+        <v>53.16980677800104</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,28 +28922,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>7.80797765187986</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>5.864868956805024</v>
+        <v>136.5057953877893</v>
       </c>
       <c r="T21" t="n">
         <v>215.0005587592053</v>
       </c>
       <c r="U21" t="n">
-        <v>51.36606405569408</v>
+        <v>237.2285532045118</v>
       </c>
       <c r="V21" t="n">
-        <v>54.78643176658451</v>
+        <v>54.78643176658449</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>31.45042529065284</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28983,16 +28983,16 @@
         <v>120.6754001333802</v>
       </c>
       <c r="K22" t="n">
-        <v>67.74612116979594</v>
+        <v>67.74612116979596</v>
       </c>
       <c r="L22" t="n">
         <v>33.06823020862724</v>
       </c>
       <c r="M22" t="n">
-        <v>26.18309542946768</v>
+        <v>26.18309542946769</v>
       </c>
       <c r="N22" t="n">
-        <v>17.46341260935883</v>
+        <v>17.46341260935884</v>
       </c>
       <c r="O22" t="n">
         <v>38.35013288227302</v>
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="C23" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="D23" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="E23" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="F23" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="G23" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="H23" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="I23" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="J23" t="n">
-        <v>263.8104015721231</v>
+        <v>77.94791242330545</v>
       </c>
       <c r="K23" t="n">
-        <v>8.475163710519119</v>
+        <v>8.475163710519126</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29074,37 +29074,37 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>77.18551216235538</v>
       </c>
       <c r="P23" t="n">
-        <v>85.44932926741546</v>
+        <v>202.9305077713335</v>
       </c>
       <c r="Q23" t="n">
-        <v>91.1956654927974</v>
+        <v>277.0581546416151</v>
       </c>
       <c r="R23" t="n">
         <v>195.7447354909196</v>
       </c>
       <c r="S23" t="n">
-        <v>298.391498516302</v>
+        <v>227.8301292106862</v>
       </c>
       <c r="T23" t="n">
-        <v>298.391498516302</v>
+        <v>222.5260348585213</v>
       </c>
       <c r="U23" t="n">
-        <v>298.391498516302</v>
+        <v>250.1516408134256</v>
       </c>
       <c r="V23" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="W23" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="X23" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
       <c r="Y23" t="n">
-        <v>298.391498516302</v>
+        <v>298.3914985163019</v>
       </c>
     </row>
     <row r="24">
@@ -29138,7 +29138,7 @@
         <v>107.6165506667984</v>
       </c>
       <c r="J24" t="n">
-        <v>53.16980677800103</v>
+        <v>53.16980677800104</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,31 +29159,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>7.80797765187986</v>
       </c>
       <c r="R24" t="n">
-        <v>135.1762917966844</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>191.7273581056228</v>
       </c>
       <c r="T24" t="n">
-        <v>59.10085596880677</v>
+        <v>29.13806961038759</v>
       </c>
       <c r="U24" t="n">
-        <v>51.36606405569422</v>
+        <v>51.36606405569407</v>
       </c>
       <c r="V24" t="n">
-        <v>54.78643176658466</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>31.45042529065302</v>
+        <v>31.45042529065284</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>194.8528974884315</v>
       </c>
     </row>
     <row r="25">
@@ -29220,16 +29220,16 @@
         <v>120.6754001333802</v>
       </c>
       <c r="K25" t="n">
-        <v>67.74612116979594</v>
+        <v>67.74612116979596</v>
       </c>
       <c r="L25" t="n">
         <v>33.06823020862724</v>
       </c>
       <c r="M25" t="n">
-        <v>26.18309542946768</v>
+        <v>26.18309542946769</v>
       </c>
       <c r="N25" t="n">
-        <v>17.46341260935883</v>
+        <v>17.46341260935884</v>
       </c>
       <c r="O25" t="n">
         <v>38.35013288227302</v>
@@ -29320,7 +29320,7 @@
         <v>214.2116172669351</v>
       </c>
       <c r="R26" t="n">
-        <v>214.2116172669353</v>
+        <v>214.2116172669351</v>
       </c>
       <c r="S26" t="n">
         <v>214.2116172669351</v>
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29366,16 +29366,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7519568304996</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.8065328648607</v>
       </c>
       <c r="I27" t="n">
         <v>107.6165506667984</v>
       </c>
       <c r="J27" t="n">
-        <v>53.16980677800103</v>
+        <v>53.16980677800104</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,25 +29396,25 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.807977651879856</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>135.1762917966844</v>
+        <v>111.3384327941673</v>
       </c>
       <c r="S27" t="n">
-        <v>191.7273581056228</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>214.2116172669351</v>
       </c>
       <c r="U27" t="n">
-        <v>77.8787606779099</v>
+        <v>214.2116172669351</v>
       </c>
       <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>214.2116172669351</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>214.2116172669351</v>
@@ -29436,7 +29436,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>214.2116172669351</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29454,19 +29454,19 @@
         <v>165.0383354020217</v>
       </c>
       <c r="J28" t="n">
-        <v>160.1638497669018</v>
+        <v>120.6754001333802</v>
       </c>
       <c r="K28" t="n">
-        <v>67.74612116979594</v>
+        <v>67.74612116979596</v>
       </c>
       <c r="L28" t="n">
-        <v>33.06823020862724</v>
+        <v>191.5562346633919</v>
       </c>
       <c r="M28" t="n">
-        <v>214.2116172669351</v>
+        <v>26.18309542946769</v>
       </c>
       <c r="N28" t="n">
-        <v>17.46341260935883</v>
+        <v>17.46341260935884</v>
       </c>
       <c r="O28" t="n">
         <v>38.35013288227302</v>
@@ -29612,7 +29612,7 @@
         <v>107.6165506667984</v>
       </c>
       <c r="J30" t="n">
-        <v>53.16980677800103</v>
+        <v>53.16980677800104</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.807977651879856</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>135.1762917966844</v>
@@ -29642,22 +29642,22 @@
         <v>191.7273581056228</v>
       </c>
       <c r="T30" t="n">
+        <v>25.33986590136453</v>
+      </c>
+      <c r="U30" t="n">
         <v>214.2116172669351</v>
       </c>
-      <c r="U30" t="n">
-        <v>17.53188824948472</v>
-      </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>214.2116172669351</v>
       </c>
-      <c r="W30" t="n">
+      <c r="Y30" t="n">
         <v>214.2116172669351</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29694,16 +29694,16 @@
         <v>120.6754001333802</v>
       </c>
       <c r="K31" t="n">
-        <v>67.74612116979594</v>
+        <v>67.74612116979596</v>
       </c>
       <c r="L31" t="n">
-        <v>84.72371729495461</v>
+        <v>33.06823020862724</v>
       </c>
       <c r="M31" t="n">
-        <v>26.18309542946768</v>
+        <v>77.83858251579494</v>
       </c>
       <c r="N31" t="n">
-        <v>17.46341260935883</v>
+        <v>17.46341260935884</v>
       </c>
       <c r="O31" t="n">
         <v>214.2116172669351</v>
@@ -29773,7 +29773,7 @@
         <v>215.0393271337994</v>
       </c>
       <c r="K32" t="n">
-        <v>215.0393271337994</v>
+        <v>194.9222023836844</v>
       </c>
       <c r="L32" t="n">
         <v>215.0393271337994</v>
@@ -29791,7 +29791,7 @@
         <v>215.0393271337994</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.9222023836846</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="R32" t="n">
         <v>215.0393271337994</v>
@@ -29828,19 +29828,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>101.855908458179</v>
       </c>
       <c r="G33" t="n">
-        <v>24.23540817345985</v>
+        <v>148.7519568304996</v>
       </c>
       <c r="H33" t="n">
         <v>125.8065328648607</v>
@@ -29849,7 +29849,7 @@
         <v>107.6165506667984</v>
       </c>
       <c r="J33" t="n">
-        <v>53.16980677800103</v>
+        <v>53.16980677800104</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,10 +29870,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.807977651879856</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>135.1762917966844</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.7273581056228</v>
@@ -29885,10 +29885,10 @@
         <v>215.0393271337994</v>
       </c>
       <c r="V33" t="n">
-        <v>215.0393271337994</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>215.0393271337994</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>215.0393271337994</v>
@@ -29925,34 +29925,34 @@
         <v>215.0393271337994</v>
       </c>
       <c r="I34" t="n">
-        <v>165.0383354020217</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="J34" t="n">
         <v>120.6754001333802</v>
       </c>
       <c r="K34" t="n">
-        <v>67.74612116979594</v>
+        <v>67.74612116979596</v>
       </c>
       <c r="L34" t="n">
         <v>33.06823020862724</v>
       </c>
       <c r="M34" t="n">
-        <v>26.18309542946768</v>
+        <v>26.18309542946769</v>
       </c>
       <c r="N34" t="n">
-        <v>17.46341260935883</v>
+        <v>128.5754444866893</v>
       </c>
       <c r="O34" t="n">
-        <v>54.98014374568326</v>
+        <v>38.35013288227302</v>
       </c>
       <c r="P34" t="n">
-        <v>215.0393271337994</v>
+        <v>59.22410283383118</v>
       </c>
       <c r="Q34" t="n">
         <v>127.7331342448247</v>
       </c>
       <c r="R34" t="n">
-        <v>203.707115579529</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="S34" t="n">
         <v>215.0393271337994</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="C35" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="D35" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="E35" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="F35" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="G35" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="H35" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="I35" t="n">
-        <v>272.0383693856386</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0383693856386</v>
+        <v>77.94791242330545</v>
       </c>
       <c r="K35" t="n">
-        <v>165.2090782435902</v>
+        <v>269.0347308940966</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>215.5353102926229</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>186.9227181675816</v>
       </c>
       <c r="O35" t="n">
-        <v>228.308559306307</v>
+        <v>62.22146904975097</v>
       </c>
       <c r="P35" t="n">
-        <v>17.06801862251571</v>
+        <v>17.06801862251572</v>
       </c>
       <c r="Q35" t="n">
         <v>91.1956654927974</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0383693856386</v>
+        <v>227.8301292106862</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0383693856386</v>
+        <v>222.5260348585213</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0383693856386</v>
+        <v>250.1516408134256</v>
       </c>
       <c r="V35" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="W35" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="Y35" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
     </row>
     <row r="36">
@@ -30062,19 +30062,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7519568304996</v>
@@ -30086,7 +30086,7 @@
         <v>107.6165506667984</v>
       </c>
       <c r="J36" t="n">
-        <v>53.16980677800103</v>
+        <v>53.16980677800104</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,10 +30107,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>7.807977651879856</v>
+        <v>7.80797765187986</v>
       </c>
       <c r="R36" t="n">
-        <v>135.1762917966844</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>191.7273581056228</v>
@@ -30122,13 +30122,13 @@
         <v>237.2285532045118</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>40.54320169658592</v>
       </c>
       <c r="W36" t="n">
-        <v>193.1653270316466</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30168,19 +30168,19 @@
         <v>120.6754001333802</v>
       </c>
       <c r="K37" t="n">
-        <v>67.74612116979594</v>
+        <v>67.74612116979596</v>
       </c>
       <c r="L37" t="n">
         <v>33.06823020862724</v>
       </c>
       <c r="M37" t="n">
-        <v>26.18309542946768</v>
+        <v>26.18309542946769</v>
       </c>
       <c r="N37" t="n">
-        <v>17.46341260935883</v>
+        <v>17.46341260935884</v>
       </c>
       <c r="O37" t="n">
-        <v>38.35013288227302</v>
+        <v>55.30608002988366</v>
       </c>
       <c r="P37" t="n">
         <v>59.22410283383118</v>
@@ -30189,7 +30189,7 @@
         <v>127.7331342448247</v>
       </c>
       <c r="R37" t="n">
-        <v>239.306402900282</v>
+        <v>203.707115579529</v>
       </c>
       <c r="S37" t="n">
         <v>235.5454655207715</v>
@@ -30198,13 +30198,13 @@
         <v>223.7878954052827</v>
       </c>
       <c r="U37" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="V37" t="n">
-        <v>245.1090151844499</v>
+        <v>263.752355357592</v>
       </c>
       <c r="W37" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,40 +30220,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="C38" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="D38" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="E38" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="F38" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="G38" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="H38" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="I38" t="n">
-        <v>265.4760287440049</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="J38" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="K38" t="n">
-        <v>8.475163710519119</v>
+        <v>269.0347308940966</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>166.0399705495</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -30262,34 +30262,34 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>272.0383693856386</v>
+        <v>17.06801862251572</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0383693856386</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="S38" t="n">
         <v>227.8301292106862</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0383693856386</v>
+        <v>222.5260348585213</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0383693856386</v>
+        <v>250.1516408134256</v>
       </c>
       <c r="V38" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="W38" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="Y38" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
     </row>
     <row r="39">
@@ -30302,7 +30302,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30314,7 +30314,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7519568304996</v>
       </c>
       <c r="H39" t="n">
         <v>125.8065328648607</v>
@@ -30323,7 +30323,7 @@
         <v>107.6165506667984</v>
       </c>
       <c r="J39" t="n">
-        <v>53.16980677800103</v>
+        <v>53.16980677800104</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,22 +30344,22 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>7.807977651879856</v>
+        <v>7.80797765187986</v>
       </c>
       <c r="R39" t="n">
         <v>135.1762917966844</v>
       </c>
       <c r="S39" t="n">
-        <v>191.7273581056228</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>215.0005587592053</v>
+        <v>144.4923140054049</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
@@ -30368,7 +30368,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>56.76987071406563</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30396,7 +30396,7 @@
         <v>168.7069388953345</v>
       </c>
       <c r="H40" t="n">
-        <v>165.8792009354125</v>
+        <v>201.4784882561653</v>
       </c>
       <c r="I40" t="n">
         <v>165.0383354020217</v>
@@ -30405,16 +30405,16 @@
         <v>120.6754001333802</v>
       </c>
       <c r="K40" t="n">
-        <v>67.74612116979594</v>
+        <v>67.74612116979596</v>
       </c>
       <c r="L40" t="n">
         <v>33.06823020862724</v>
       </c>
       <c r="M40" t="n">
-        <v>26.18309542946768</v>
+        <v>26.18309542946769</v>
       </c>
       <c r="N40" t="n">
-        <v>17.46341260935883</v>
+        <v>17.46341260935884</v>
       </c>
       <c r="O40" t="n">
         <v>38.35013288227302</v>
@@ -30435,16 +30435,16 @@
         <v>223.7878954052827</v>
       </c>
       <c r="U40" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>272.0383693856386</v>
+        <v>272.0383693856387</v>
       </c>
       <c r="X40" t="n">
-        <v>257.5187427289954</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
         <v>217.1412728141684</v>
@@ -30481,31 +30481,31 @@
         <v>241.5395387680994</v>
       </c>
       <c r="J41" t="n">
+        <v>77.94791242330545</v>
+      </c>
+      <c r="K41" t="n">
+        <v>8.475163710519126</v>
+      </c>
+      <c r="L41" t="n">
+        <v>196.7758530634743</v>
+      </c>
+      <c r="M41" t="n">
+        <v>200.5437051688863</v>
+      </c>
+      <c r="N41" t="n">
+        <v>206.1726532345827</v>
+      </c>
+      <c r="O41" t="n">
         <v>241.5395387680994</v>
       </c>
-      <c r="K41" t="n">
-        <v>241.5395387680994</v>
-      </c>
-      <c r="L41" t="n">
-        <v>234.7852453596228</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>34.51984554307475</v>
+        <v>17.06801862251572</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.5395387680994</v>
+        <v>91.1956654927974</v>
       </c>
       <c r="R41" t="n">
-        <v>241.5395387680994</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="S41" t="n">
         <v>241.5395387680994</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30557,10 +30557,10 @@
         <v>125.8065328648607</v>
       </c>
       <c r="I42" t="n">
-        <v>28.27146610160898</v>
+        <v>107.6165506667984</v>
       </c>
       <c r="J42" t="n">
-        <v>53.16980677800103</v>
+        <v>53.16980677800104</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>7.807977651879856</v>
+        <v>7.80797765187986</v>
       </c>
       <c r="R42" t="n">
         <v>135.1762917966844</v>
@@ -30590,10 +30590,10 @@
         <v>191.7273581056228</v>
       </c>
       <c r="T42" t="n">
-        <v>215.0005587592053</v>
+        <v>202.204904695417</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2285532045118</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -30602,10 +30602,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30639,19 +30639,19 @@
         <v>165.0383354020217</v>
       </c>
       <c r="J43" t="n">
-        <v>120.6754001333802</v>
+        <v>160.5746597372758</v>
       </c>
       <c r="K43" t="n">
-        <v>67.74612116979594</v>
+        <v>67.74612116979596</v>
       </c>
       <c r="L43" t="n">
         <v>33.06823020862724</v>
       </c>
       <c r="M43" t="n">
-        <v>26.18309542946768</v>
+        <v>26.18309542946769</v>
       </c>
       <c r="N43" t="n">
-        <v>17.46341260935883</v>
+        <v>17.46341260935884</v>
       </c>
       <c r="O43" t="n">
         <v>38.35013288227302</v>
@@ -30660,16 +30660,16 @@
         <v>59.22410283383118</v>
       </c>
       <c r="Q43" t="n">
-        <v>229.2105336474355</v>
+        <v>127.7331342448247</v>
       </c>
       <c r="R43" t="n">
-        <v>203.707115579529</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="S43" t="n">
-        <v>235.5454655207715</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="T43" t="n">
-        <v>223.7878954052827</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="U43" t="n">
         <v>241.5395387680994</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.5395387680995</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="C44" t="n">
-        <v>241.5395387680995</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="D44" t="n">
-        <v>241.5395387680995</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="E44" t="n">
-        <v>241.5395387680995</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="F44" t="n">
-        <v>241.5395387680995</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="G44" t="n">
-        <v>241.5395387680995</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="H44" t="n">
-        <v>241.5395387680995</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="I44" t="n">
         <v>241.5395387680994</v>
       </c>
       <c r="J44" t="n">
-        <v>223.9042286870795</v>
+        <v>203.1625857293813</v>
       </c>
       <c r="K44" t="n">
-        <v>241.5395387680995</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>234.785245359624</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>206.1726532345827</v>
       </c>
       <c r="O44" t="n">
-        <v>241.5395387680995</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>241.5395387680995</v>
+        <v>17.06801862251572</v>
       </c>
       <c r="Q44" t="n">
         <v>91.1956654927974</v>
       </c>
       <c r="R44" t="n">
-        <v>195.7447354909196</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="S44" t="n">
-        <v>241.5395387680995</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="T44" t="n">
-        <v>241.5395387680995</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="U44" t="n">
-        <v>241.5395387680995</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="V44" t="n">
-        <v>241.5395387680995</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="W44" t="n">
-        <v>241.5395387680995</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="X44" t="n">
-        <v>241.5395387680995</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.5395387680995</v>
+        <v>241.5395387680994</v>
       </c>
     </row>
     <row r="45">
@@ -30788,7 +30788,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7519568304996</v>
       </c>
       <c r="H45" t="n">
         <v>125.8065328648607</v>
@@ -30797,7 +30797,7 @@
         <v>107.6165506667984</v>
       </c>
       <c r="J45" t="n">
-        <v>53.16980677800103</v>
+        <v>53.16980677800104</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,25 +30818,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>7.80797765187986</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>135.1762917966844</v>
       </c>
       <c r="S45" t="n">
-        <v>160.2666053711325</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2285532045118</v>
+        <v>105.7589322965806</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>241.5395387680995</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30879,16 +30879,16 @@
         <v>120.6754001333802</v>
       </c>
       <c r="K46" t="n">
-        <v>169.2235205724065</v>
+        <v>67.74612116979596</v>
       </c>
       <c r="L46" t="n">
         <v>33.06823020862724</v>
       </c>
       <c r="M46" t="n">
-        <v>26.18309542946768</v>
+        <v>26.18309542946769</v>
       </c>
       <c r="N46" t="n">
-        <v>17.46341260935883</v>
+        <v>118.9408120119696</v>
       </c>
       <c r="O46" t="n">
         <v>38.35013288227302</v>
@@ -30909,13 +30909,13 @@
         <v>223.7878954052827</v>
       </c>
       <c r="U46" t="n">
-        <v>241.5395387680995</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="V46" t="n">
-        <v>241.5395387680995</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="W46" t="n">
-        <v>241.5395387680995</v>
+        <v>241.5395387680994</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -31750,34 +31750,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3929776222654</v>
+        <v>0.3929776222653999</v>
       </c>
       <c r="H11" t="n">
         <v>4.024582074025528</v>
       </c>
       <c r="I11" t="n">
-        <v>15.15026978238685</v>
+        <v>15.15026978238684</v>
       </c>
       <c r="J11" t="n">
         <v>33.35348446774802</v>
       </c>
       <c r="K11" t="n">
-        <v>49.98822721824241</v>
+        <v>49.9882272182424</v>
       </c>
       <c r="L11" t="n">
-        <v>62.01481612564716</v>
+        <v>62.01481612564715</v>
       </c>
       <c r="M11" t="n">
         <v>69.00343191560945</v>
       </c>
       <c r="N11" t="n">
-        <v>70.11997958487103</v>
+        <v>70.11997958487102</v>
       </c>
       <c r="O11" t="n">
         <v>66.21230835346945</v>
       </c>
       <c r="P11" t="n">
-        <v>56.51067330379239</v>
+        <v>56.51067330379238</v>
       </c>
       <c r="Q11" t="n">
         <v>42.43716220641274</v>
@@ -31786,13 +31786,13 @@
         <v>24.68538056462895</v>
       </c>
       <c r="S11" t="n">
-        <v>8.954977567372811</v>
+        <v>8.95497756737281</v>
       </c>
       <c r="T11" t="n">
         <v>1.720259541466789</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03143820978123199</v>
+        <v>0.03143820978123198</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2102615645922847</v>
+        <v>0.2102615645922846</v>
       </c>
       <c r="H12" t="n">
         <v>2.030684058036013</v>
       </c>
       <c r="I12" t="n">
-        <v>7.239268780918574</v>
+        <v>7.239268780918573</v>
       </c>
       <c r="J12" t="n">
         <v>19.86510685474739</v>
@@ -31844,19 +31844,19 @@
         <v>33.95263168243046</v>
       </c>
       <c r="L12" t="n">
-        <v>45.65350331202217</v>
+        <v>45.65350331202216</v>
       </c>
       <c r="M12" t="n">
-        <v>53.27548502849248</v>
+        <v>53.27548502849247</v>
       </c>
       <c r="N12" t="n">
-        <v>54.68552859104338</v>
+        <v>54.68552859104337</v>
       </c>
       <c r="O12" t="n">
-        <v>50.0265749756038</v>
+        <v>50.02657497560379</v>
       </c>
       <c r="P12" t="n">
-        <v>40.15073683867935</v>
+        <v>40.15073683867934</v>
       </c>
       <c r="Q12" t="n">
         <v>26.8397042802362</v>
@@ -31868,7 +31868,7 @@
         <v>3.905516342317215</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8475016572820594</v>
+        <v>0.8475016572820593</v>
       </c>
       <c r="U12" t="n">
         <v>0.01383299767054505</v>
@@ -31914,7 +31914,7 @@
         <v>1.567255959027393</v>
       </c>
       <c r="I13" t="n">
-        <v>5.301107067957683</v>
+        <v>5.301107067957682</v>
       </c>
       <c r="J13" t="n">
         <v>12.46272964555831</v>
@@ -31923,10 +31923,10 @@
         <v>20.48009320692235</v>
       </c>
       <c r="L13" t="n">
-        <v>26.20746825555621</v>
+        <v>26.2074682555562</v>
       </c>
       <c r="M13" t="n">
-        <v>27.63210071728969</v>
+        <v>27.63210071728968</v>
       </c>
       <c r="N13" t="n">
         <v>26.97507112301442</v>
@@ -31935,22 +31935,22 @@
         <v>24.91584422388333</v>
       </c>
       <c r="P13" t="n">
-        <v>21.31980907863028</v>
+        <v>21.31980907863027</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.76073071431627</v>
+        <v>14.76073071431626</v>
       </c>
       <c r="R13" t="n">
-        <v>7.926020422647728</v>
+        <v>7.926020422647727</v>
       </c>
       <c r="S13" t="n">
-        <v>3.072013981038353</v>
+        <v>3.072013981038352</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7531802666082555</v>
+        <v>0.7531802666082554</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009615067233296894</v>
+        <v>0.009615067233296892</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,28 +31990,28 @@
         <v>0.3929776222654</v>
       </c>
       <c r="H14" t="n">
-        <v>4.024582074025528</v>
+        <v>4.024582074025529</v>
       </c>
       <c r="I14" t="n">
         <v>15.15026978238685</v>
       </c>
       <c r="J14" t="n">
-        <v>33.35348446774802</v>
+        <v>33.35348446774803</v>
       </c>
       <c r="K14" t="n">
         <v>49.98822721824241</v>
       </c>
       <c r="L14" t="n">
-        <v>62.01481612564716</v>
+        <v>62.01481612564717</v>
       </c>
       <c r="M14" t="n">
-        <v>69.00343191560945</v>
+        <v>69.00343191560947</v>
       </c>
       <c r="N14" t="n">
-        <v>70.11997958487103</v>
+        <v>70.11997958487105</v>
       </c>
       <c r="O14" t="n">
-        <v>66.21230835346945</v>
+        <v>66.21230835346947</v>
       </c>
       <c r="P14" t="n">
         <v>56.51067330379239</v>
@@ -32020,7 +32020,7 @@
         <v>42.43716220641274</v>
       </c>
       <c r="R14" t="n">
-        <v>24.68538056462895</v>
+        <v>24.68538056462896</v>
       </c>
       <c r="S14" t="n">
         <v>8.954977567372811</v>
@@ -32029,7 +32029,7 @@
         <v>1.720259541466789</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03143820978123199</v>
+        <v>0.031438209781232</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>2.030684058036013</v>
       </c>
       <c r="I15" t="n">
-        <v>7.239268780918574</v>
+        <v>7.239268780918575</v>
       </c>
       <c r="J15" t="n">
         <v>19.86510685474739</v>
@@ -32087,25 +32087,25 @@
         <v>53.27548502849248</v>
       </c>
       <c r="N15" t="n">
-        <v>54.68552859104338</v>
+        <v>54.68552859104339</v>
       </c>
       <c r="O15" t="n">
-        <v>50.0265749756038</v>
+        <v>50.02657497560381</v>
       </c>
       <c r="P15" t="n">
         <v>40.15073683867935</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.8397042802362</v>
+        <v>26.83970428023621</v>
       </c>
       <c r="R15" t="n">
-        <v>13.05466100161571</v>
+        <v>13.05466100161572</v>
       </c>
       <c r="S15" t="n">
         <v>3.905516342317215</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8475016572820594</v>
+        <v>0.8475016572820595</v>
       </c>
       <c r="U15" t="n">
         <v>0.01383299767054505</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1762762326104428</v>
+        <v>0.1762762326104429</v>
       </c>
       <c r="H16" t="n">
         <v>1.567255959027393</v>
       </c>
       <c r="I16" t="n">
-        <v>5.301107067957683</v>
+        <v>5.301107067957684</v>
       </c>
       <c r="J16" t="n">
         <v>12.46272964555831</v>
       </c>
       <c r="K16" t="n">
-        <v>20.48009320692235</v>
+        <v>20.48009320692236</v>
       </c>
       <c r="L16" t="n">
         <v>26.20746825555621</v>
@@ -32166,7 +32166,7 @@
         <v>27.63210071728969</v>
       </c>
       <c r="N16" t="n">
-        <v>26.97507112301442</v>
+        <v>26.97507112301443</v>
       </c>
       <c r="O16" t="n">
         <v>24.91584422388333</v>
@@ -32178,16 +32178,16 @@
         <v>14.76073071431627</v>
       </c>
       <c r="R16" t="n">
-        <v>7.926020422647728</v>
+        <v>7.92602042264773</v>
       </c>
       <c r="S16" t="n">
         <v>3.072013981038353</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7531802666082555</v>
+        <v>0.7531802666082557</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009615067233296894</v>
+        <v>0.009615067233296895</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,34 +32224,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3929776222654</v>
+        <v>0.3929776222653999</v>
       </c>
       <c r="H17" t="n">
         <v>4.024582074025528</v>
       </c>
       <c r="I17" t="n">
-        <v>15.15026978238685</v>
+        <v>15.15026978238684</v>
       </c>
       <c r="J17" t="n">
         <v>33.35348446774802</v>
       </c>
       <c r="K17" t="n">
-        <v>49.98822721824241</v>
+        <v>49.9882272182424</v>
       </c>
       <c r="L17" t="n">
-        <v>62.01481612564716</v>
+        <v>62.01481612564715</v>
       </c>
       <c r="M17" t="n">
         <v>69.00343191560945</v>
       </c>
       <c r="N17" t="n">
-        <v>70.11997958487103</v>
+        <v>70.11997958487102</v>
       </c>
       <c r="O17" t="n">
         <v>66.21230835346945</v>
       </c>
       <c r="P17" t="n">
-        <v>56.51067330379239</v>
+        <v>56.51067330379238</v>
       </c>
       <c r="Q17" t="n">
         <v>42.43716220641274</v>
@@ -32260,13 +32260,13 @@
         <v>24.68538056462895</v>
       </c>
       <c r="S17" t="n">
-        <v>8.954977567372811</v>
+        <v>8.95497756737281</v>
       </c>
       <c r="T17" t="n">
         <v>1.720259541466789</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03143820978123199</v>
+        <v>0.03143820978123198</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2102615645922847</v>
+        <v>0.2102615645922846</v>
       </c>
       <c r="H18" t="n">
         <v>2.030684058036013</v>
       </c>
       <c r="I18" t="n">
-        <v>7.239268780918574</v>
+        <v>7.239268780918573</v>
       </c>
       <c r="J18" t="n">
         <v>19.86510685474739</v>
@@ -32318,19 +32318,19 @@
         <v>33.95263168243046</v>
       </c>
       <c r="L18" t="n">
-        <v>45.65350331202217</v>
+        <v>45.65350331202216</v>
       </c>
       <c r="M18" t="n">
-        <v>53.27548502849248</v>
+        <v>53.27548502849247</v>
       </c>
       <c r="N18" t="n">
-        <v>54.68552859104338</v>
+        <v>54.68552859104337</v>
       </c>
       <c r="O18" t="n">
-        <v>50.0265749756038</v>
+        <v>50.02657497560379</v>
       </c>
       <c r="P18" t="n">
-        <v>40.15073683867935</v>
+        <v>40.15073683867934</v>
       </c>
       <c r="Q18" t="n">
         <v>26.8397042802362</v>
@@ -32342,7 +32342,7 @@
         <v>3.905516342317215</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8475016572820594</v>
+        <v>0.8475016572820593</v>
       </c>
       <c r="U18" t="n">
         <v>0.01383299767054505</v>
@@ -32388,7 +32388,7 @@
         <v>1.567255959027393</v>
       </c>
       <c r="I19" t="n">
-        <v>5.301107067957683</v>
+        <v>5.301107067957682</v>
       </c>
       <c r="J19" t="n">
         <v>12.46272964555831</v>
@@ -32397,10 +32397,10 @@
         <v>20.48009320692235</v>
       </c>
       <c r="L19" t="n">
-        <v>26.20746825555621</v>
+        <v>26.2074682555562</v>
       </c>
       <c r="M19" t="n">
-        <v>27.63210071728969</v>
+        <v>27.63210071728968</v>
       </c>
       <c r="N19" t="n">
         <v>26.97507112301442</v>
@@ -32409,22 +32409,22 @@
         <v>24.91584422388333</v>
       </c>
       <c r="P19" t="n">
-        <v>21.31980907863028</v>
+        <v>21.31980907863027</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.76073071431627</v>
+        <v>14.76073071431626</v>
       </c>
       <c r="R19" t="n">
-        <v>7.926020422647728</v>
+        <v>7.926020422647727</v>
       </c>
       <c r="S19" t="n">
-        <v>3.072013981038353</v>
+        <v>3.072013981038352</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7531802666082555</v>
+        <v>0.7531802666082554</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009615067233296894</v>
+        <v>0.009615067233296892</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,34 +32461,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3929776222654</v>
+        <v>0.3929776222653999</v>
       </c>
       <c r="H20" t="n">
         <v>4.024582074025528</v>
       </c>
       <c r="I20" t="n">
-        <v>15.15026978238685</v>
+        <v>15.15026978238684</v>
       </c>
       <c r="J20" t="n">
         <v>33.35348446774802</v>
       </c>
       <c r="K20" t="n">
-        <v>49.98822721824241</v>
+        <v>49.9882272182424</v>
       </c>
       <c r="L20" t="n">
-        <v>62.01481612564716</v>
+        <v>62.01481612564715</v>
       </c>
       <c r="M20" t="n">
         <v>69.00343191560945</v>
       </c>
       <c r="N20" t="n">
-        <v>70.11997958487103</v>
+        <v>70.11997958487102</v>
       </c>
       <c r="O20" t="n">
         <v>66.21230835346945</v>
       </c>
       <c r="P20" t="n">
-        <v>56.51067330379239</v>
+        <v>56.51067330379238</v>
       </c>
       <c r="Q20" t="n">
         <v>42.43716220641274</v>
@@ -32497,13 +32497,13 @@
         <v>24.68538056462895</v>
       </c>
       <c r="S20" t="n">
-        <v>8.954977567372811</v>
+        <v>8.95497756737281</v>
       </c>
       <c r="T20" t="n">
         <v>1.720259541466789</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03143820978123199</v>
+        <v>0.03143820978123198</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2102615645922847</v>
+        <v>0.2102615645922846</v>
       </c>
       <c r="H21" t="n">
         <v>2.030684058036013</v>
       </c>
       <c r="I21" t="n">
-        <v>7.239268780918574</v>
+        <v>7.239268780918573</v>
       </c>
       <c r="J21" t="n">
         <v>19.86510685474739</v>
@@ -32555,19 +32555,19 @@
         <v>33.95263168243046</v>
       </c>
       <c r="L21" t="n">
-        <v>45.65350331202217</v>
+        <v>45.65350331202216</v>
       </c>
       <c r="M21" t="n">
-        <v>53.27548502849248</v>
+        <v>53.27548502849247</v>
       </c>
       <c r="N21" t="n">
-        <v>54.68552859104338</v>
+        <v>54.68552859104337</v>
       </c>
       <c r="O21" t="n">
-        <v>50.0265749756038</v>
+        <v>50.02657497560379</v>
       </c>
       <c r="P21" t="n">
-        <v>40.15073683867935</v>
+        <v>40.15073683867934</v>
       </c>
       <c r="Q21" t="n">
         <v>26.8397042802362</v>
@@ -32579,7 +32579,7 @@
         <v>3.905516342317215</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8475016572820594</v>
+        <v>0.8475016572820593</v>
       </c>
       <c r="U21" t="n">
         <v>0.01383299767054505</v>
@@ -32625,7 +32625,7 @@
         <v>1.567255959027393</v>
       </c>
       <c r="I22" t="n">
-        <v>5.301107067957683</v>
+        <v>5.301107067957682</v>
       </c>
       <c r="J22" t="n">
         <v>12.46272964555831</v>
@@ -32634,10 +32634,10 @@
         <v>20.48009320692235</v>
       </c>
       <c r="L22" t="n">
-        <v>26.20746825555621</v>
+        <v>26.2074682555562</v>
       </c>
       <c r="M22" t="n">
-        <v>27.63210071728969</v>
+        <v>27.63210071728968</v>
       </c>
       <c r="N22" t="n">
         <v>26.97507112301442</v>
@@ -32646,22 +32646,22 @@
         <v>24.91584422388333</v>
       </c>
       <c r="P22" t="n">
-        <v>21.31980907863028</v>
+        <v>21.31980907863027</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.76073071431627</v>
+        <v>14.76073071431626</v>
       </c>
       <c r="R22" t="n">
-        <v>7.926020422647728</v>
+        <v>7.926020422647727</v>
       </c>
       <c r="S22" t="n">
-        <v>3.072013981038353</v>
+        <v>3.072013981038352</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7531802666082555</v>
+        <v>0.7531802666082554</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009615067233296894</v>
+        <v>0.009615067233296892</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,34 +32698,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3929776222654</v>
+        <v>0.3929776222653999</v>
       </c>
       <c r="H23" t="n">
         <v>4.024582074025528</v>
       </c>
       <c r="I23" t="n">
-        <v>15.15026978238685</v>
+        <v>15.15026978238684</v>
       </c>
       <c r="J23" t="n">
         <v>33.35348446774802</v>
       </c>
       <c r="K23" t="n">
-        <v>49.98822721824241</v>
+        <v>49.9882272182424</v>
       </c>
       <c r="L23" t="n">
-        <v>62.01481612564716</v>
+        <v>62.01481612564715</v>
       </c>
       <c r="M23" t="n">
         <v>69.00343191560945</v>
       </c>
       <c r="N23" t="n">
-        <v>70.11997958487103</v>
+        <v>70.11997958487102</v>
       </c>
       <c r="O23" t="n">
         <v>66.21230835346945</v>
       </c>
       <c r="P23" t="n">
-        <v>56.51067330379239</v>
+        <v>56.51067330379238</v>
       </c>
       <c r="Q23" t="n">
         <v>42.43716220641274</v>
@@ -32734,13 +32734,13 @@
         <v>24.68538056462895</v>
       </c>
       <c r="S23" t="n">
-        <v>8.954977567372811</v>
+        <v>8.95497756737281</v>
       </c>
       <c r="T23" t="n">
         <v>1.720259541466789</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03143820978123199</v>
+        <v>0.03143820978123198</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2102615645922847</v>
+        <v>0.2102615645922846</v>
       </c>
       <c r="H24" t="n">
         <v>2.030684058036013</v>
       </c>
       <c r="I24" t="n">
-        <v>7.239268780918574</v>
+        <v>7.239268780918573</v>
       </c>
       <c r="J24" t="n">
         <v>19.86510685474739</v>
@@ -32792,19 +32792,19 @@
         <v>33.95263168243046</v>
       </c>
       <c r="L24" t="n">
-        <v>45.65350331202217</v>
+        <v>45.65350331202216</v>
       </c>
       <c r="M24" t="n">
-        <v>53.27548502849248</v>
+        <v>53.27548502849247</v>
       </c>
       <c r="N24" t="n">
-        <v>54.68552859104338</v>
+        <v>54.68552859104337</v>
       </c>
       <c r="O24" t="n">
-        <v>50.0265749756038</v>
+        <v>50.02657497560379</v>
       </c>
       <c r="P24" t="n">
-        <v>40.15073683867935</v>
+        <v>40.15073683867934</v>
       </c>
       <c r="Q24" t="n">
         <v>26.8397042802362</v>
@@ -32816,7 +32816,7 @@
         <v>3.905516342317215</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8475016572820594</v>
+        <v>0.8475016572820593</v>
       </c>
       <c r="U24" t="n">
         <v>0.01383299767054505</v>
@@ -32862,7 +32862,7 @@
         <v>1.567255959027393</v>
       </c>
       <c r="I25" t="n">
-        <v>5.301107067957683</v>
+        <v>5.301107067957682</v>
       </c>
       <c r="J25" t="n">
         <v>12.46272964555831</v>
@@ -32871,10 +32871,10 @@
         <v>20.48009320692235</v>
       </c>
       <c r="L25" t="n">
-        <v>26.20746825555621</v>
+        <v>26.2074682555562</v>
       </c>
       <c r="M25" t="n">
-        <v>27.63210071728969</v>
+        <v>27.63210071728968</v>
       </c>
       <c r="N25" t="n">
         <v>26.97507112301442</v>
@@ -32883,22 +32883,22 @@
         <v>24.91584422388333</v>
       </c>
       <c r="P25" t="n">
-        <v>21.31980907863028</v>
+        <v>21.31980907863027</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.76073071431627</v>
+        <v>14.76073071431626</v>
       </c>
       <c r="R25" t="n">
-        <v>7.926020422647728</v>
+        <v>7.926020422647727</v>
       </c>
       <c r="S25" t="n">
-        <v>3.072013981038353</v>
+        <v>3.072013981038352</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7531802666082555</v>
+        <v>0.7531802666082554</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009615067233296894</v>
+        <v>0.009615067233296892</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,34 +32935,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3929776222654</v>
+        <v>0.3929776222653999</v>
       </c>
       <c r="H26" t="n">
         <v>4.024582074025528</v>
       </c>
       <c r="I26" t="n">
-        <v>15.15026978238685</v>
+        <v>15.15026978238684</v>
       </c>
       <c r="J26" t="n">
         <v>33.35348446774802</v>
       </c>
       <c r="K26" t="n">
-        <v>49.98822721824241</v>
+        <v>49.9882272182424</v>
       </c>
       <c r="L26" t="n">
-        <v>62.01481612564716</v>
+        <v>62.01481612564715</v>
       </c>
       <c r="M26" t="n">
         <v>69.00343191560945</v>
       </c>
       <c r="N26" t="n">
-        <v>70.11997958487103</v>
+        <v>70.11997958487102</v>
       </c>
       <c r="O26" t="n">
         <v>66.21230835346945</v>
       </c>
       <c r="P26" t="n">
-        <v>56.51067330379239</v>
+        <v>56.51067330379238</v>
       </c>
       <c r="Q26" t="n">
         <v>42.43716220641274</v>
@@ -32971,13 +32971,13 @@
         <v>24.68538056462895</v>
       </c>
       <c r="S26" t="n">
-        <v>8.954977567372811</v>
+        <v>8.95497756737281</v>
       </c>
       <c r="T26" t="n">
         <v>1.720259541466789</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03143820978123199</v>
+        <v>0.03143820978123198</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2102615645922847</v>
+        <v>0.2102615645922846</v>
       </c>
       <c r="H27" t="n">
         <v>2.030684058036013</v>
       </c>
       <c r="I27" t="n">
-        <v>7.239268780918574</v>
+        <v>7.239268780918573</v>
       </c>
       <c r="J27" t="n">
         <v>19.86510685474739</v>
@@ -33029,19 +33029,19 @@
         <v>33.95263168243046</v>
       </c>
       <c r="L27" t="n">
-        <v>45.65350331202217</v>
+        <v>45.65350331202216</v>
       </c>
       <c r="M27" t="n">
-        <v>53.27548502849248</v>
+        <v>53.27548502849247</v>
       </c>
       <c r="N27" t="n">
-        <v>54.68552859104338</v>
+        <v>54.68552859104337</v>
       </c>
       <c r="O27" t="n">
-        <v>50.0265749756038</v>
+        <v>50.02657497560379</v>
       </c>
       <c r="P27" t="n">
-        <v>40.15073683867935</v>
+        <v>40.15073683867934</v>
       </c>
       <c r="Q27" t="n">
         <v>26.8397042802362</v>
@@ -33053,7 +33053,7 @@
         <v>3.905516342317215</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8475016572820594</v>
+        <v>0.8475016572820593</v>
       </c>
       <c r="U27" t="n">
         <v>0.01383299767054505</v>
@@ -33099,7 +33099,7 @@
         <v>1.567255959027393</v>
       </c>
       <c r="I28" t="n">
-        <v>5.301107067957683</v>
+        <v>5.301107067957682</v>
       </c>
       <c r="J28" t="n">
         <v>12.46272964555831</v>
@@ -33108,10 +33108,10 @@
         <v>20.48009320692235</v>
       </c>
       <c r="L28" t="n">
-        <v>26.20746825555621</v>
+        <v>26.2074682555562</v>
       </c>
       <c r="M28" t="n">
-        <v>27.63210071728969</v>
+        <v>27.63210071728968</v>
       </c>
       <c r="N28" t="n">
         <v>26.97507112301442</v>
@@ -33120,22 +33120,22 @@
         <v>24.91584422388333</v>
       </c>
       <c r="P28" t="n">
-        <v>21.31980907863028</v>
+        <v>21.31980907863027</v>
       </c>
       <c r="Q28" t="n">
-        <v>14.76073071431627</v>
+        <v>14.76073071431626</v>
       </c>
       <c r="R28" t="n">
-        <v>7.926020422647728</v>
+        <v>7.926020422647727</v>
       </c>
       <c r="S28" t="n">
-        <v>3.072013981038353</v>
+        <v>3.072013981038352</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7531802666082555</v>
+        <v>0.7531802666082554</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009615067233296894</v>
+        <v>0.009615067233296892</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,34 +33172,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3929776222654</v>
+        <v>0.3929776222653999</v>
       </c>
       <c r="H29" t="n">
         <v>4.024582074025528</v>
       </c>
       <c r="I29" t="n">
-        <v>15.15026978238685</v>
+        <v>15.15026978238684</v>
       </c>
       <c r="J29" t="n">
         <v>33.35348446774802</v>
       </c>
       <c r="K29" t="n">
-        <v>49.98822721824241</v>
+        <v>49.9882272182424</v>
       </c>
       <c r="L29" t="n">
-        <v>62.01481612564716</v>
+        <v>62.01481612564715</v>
       </c>
       <c r="M29" t="n">
         <v>69.00343191560945</v>
       </c>
       <c r="N29" t="n">
-        <v>70.11997958487103</v>
+        <v>70.11997958487102</v>
       </c>
       <c r="O29" t="n">
         <v>66.21230835346945</v>
       </c>
       <c r="P29" t="n">
-        <v>56.51067330379239</v>
+        <v>56.51067330379238</v>
       </c>
       <c r="Q29" t="n">
         <v>42.43716220641274</v>
@@ -33208,13 +33208,13 @@
         <v>24.68538056462895</v>
       </c>
       <c r="S29" t="n">
-        <v>8.954977567372811</v>
+        <v>8.95497756737281</v>
       </c>
       <c r="T29" t="n">
         <v>1.720259541466789</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03143820978123199</v>
+        <v>0.03143820978123198</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2102615645922847</v>
+        <v>0.2102615645922846</v>
       </c>
       <c r="H30" t="n">
         <v>2.030684058036013</v>
       </c>
       <c r="I30" t="n">
-        <v>7.239268780918574</v>
+        <v>7.239268780918573</v>
       </c>
       <c r="J30" t="n">
         <v>19.86510685474739</v>
@@ -33266,19 +33266,19 @@
         <v>33.95263168243046</v>
       </c>
       <c r="L30" t="n">
-        <v>45.65350331202217</v>
+        <v>45.65350331202216</v>
       </c>
       <c r="M30" t="n">
-        <v>53.27548502849248</v>
+        <v>53.27548502849247</v>
       </c>
       <c r="N30" t="n">
-        <v>54.68552859104338</v>
+        <v>54.68552859104337</v>
       </c>
       <c r="O30" t="n">
-        <v>50.0265749756038</v>
+        <v>50.02657497560379</v>
       </c>
       <c r="P30" t="n">
-        <v>40.15073683867935</v>
+        <v>40.15073683867934</v>
       </c>
       <c r="Q30" t="n">
         <v>26.8397042802362</v>
@@ -33290,7 +33290,7 @@
         <v>3.905516342317215</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8475016572820594</v>
+        <v>0.8475016572820593</v>
       </c>
       <c r="U30" t="n">
         <v>0.01383299767054505</v>
@@ -33336,7 +33336,7 @@
         <v>1.567255959027393</v>
       </c>
       <c r="I31" t="n">
-        <v>5.301107067957683</v>
+        <v>5.301107067957682</v>
       </c>
       <c r="J31" t="n">
         <v>12.46272964555831</v>
@@ -33345,10 +33345,10 @@
         <v>20.48009320692235</v>
       </c>
       <c r="L31" t="n">
-        <v>26.20746825555621</v>
+        <v>26.2074682555562</v>
       </c>
       <c r="M31" t="n">
-        <v>27.63210071728969</v>
+        <v>27.63210071728968</v>
       </c>
       <c r="N31" t="n">
         <v>26.97507112301442</v>
@@ -33357,22 +33357,22 @@
         <v>24.91584422388333</v>
       </c>
       <c r="P31" t="n">
-        <v>21.31980907863028</v>
+        <v>21.31980907863027</v>
       </c>
       <c r="Q31" t="n">
-        <v>14.76073071431627</v>
+        <v>14.76073071431626</v>
       </c>
       <c r="R31" t="n">
-        <v>7.926020422647728</v>
+        <v>7.926020422647727</v>
       </c>
       <c r="S31" t="n">
-        <v>3.072013981038353</v>
+        <v>3.072013981038352</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7531802666082555</v>
+        <v>0.7531802666082554</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009615067233296894</v>
+        <v>0.009615067233296892</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,34 +33409,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3929776222654</v>
+        <v>0.3929776222653999</v>
       </c>
       <c r="H32" t="n">
         <v>4.024582074025528</v>
       </c>
       <c r="I32" t="n">
-        <v>15.15026978238685</v>
+        <v>15.15026978238684</v>
       </c>
       <c r="J32" t="n">
         <v>33.35348446774802</v>
       </c>
       <c r="K32" t="n">
-        <v>49.98822721824241</v>
+        <v>49.9882272182424</v>
       </c>
       <c r="L32" t="n">
-        <v>62.01481612564716</v>
+        <v>62.01481612564715</v>
       </c>
       <c r="M32" t="n">
         <v>69.00343191560945</v>
       </c>
       <c r="N32" t="n">
-        <v>70.11997958487103</v>
+        <v>70.11997958487102</v>
       </c>
       <c r="O32" t="n">
         <v>66.21230835346945</v>
       </c>
       <c r="P32" t="n">
-        <v>56.51067330379239</v>
+        <v>56.51067330379238</v>
       </c>
       <c r="Q32" t="n">
         <v>42.43716220641274</v>
@@ -33445,13 +33445,13 @@
         <v>24.68538056462895</v>
       </c>
       <c r="S32" t="n">
-        <v>8.954977567372811</v>
+        <v>8.95497756737281</v>
       </c>
       <c r="T32" t="n">
         <v>1.720259541466789</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03143820978123199</v>
+        <v>0.03143820978123198</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2102615645922847</v>
+        <v>0.2102615645922846</v>
       </c>
       <c r="H33" t="n">
         <v>2.030684058036013</v>
       </c>
       <c r="I33" t="n">
-        <v>7.239268780918574</v>
+        <v>7.239268780918573</v>
       </c>
       <c r="J33" t="n">
         <v>19.86510685474739</v>
@@ -33503,19 +33503,19 @@
         <v>33.95263168243046</v>
       </c>
       <c r="L33" t="n">
-        <v>45.65350331202217</v>
+        <v>45.65350331202216</v>
       </c>
       <c r="M33" t="n">
-        <v>53.27548502849248</v>
+        <v>53.27548502849247</v>
       </c>
       <c r="N33" t="n">
-        <v>54.68552859104338</v>
+        <v>54.68552859104337</v>
       </c>
       <c r="O33" t="n">
-        <v>50.0265749756038</v>
+        <v>50.02657497560379</v>
       </c>
       <c r="P33" t="n">
-        <v>40.15073683867935</v>
+        <v>40.15073683867934</v>
       </c>
       <c r="Q33" t="n">
         <v>26.8397042802362</v>
@@ -33527,7 +33527,7 @@
         <v>3.905516342317215</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8475016572820594</v>
+        <v>0.8475016572820593</v>
       </c>
       <c r="U33" t="n">
         <v>0.01383299767054505</v>
@@ -33573,7 +33573,7 @@
         <v>1.567255959027393</v>
       </c>
       <c r="I34" t="n">
-        <v>5.301107067957683</v>
+        <v>5.301107067957682</v>
       </c>
       <c r="J34" t="n">
         <v>12.46272964555831</v>
@@ -33582,10 +33582,10 @@
         <v>20.48009320692235</v>
       </c>
       <c r="L34" t="n">
-        <v>26.20746825555621</v>
+        <v>26.2074682555562</v>
       </c>
       <c r="M34" t="n">
-        <v>27.63210071728969</v>
+        <v>27.63210071728968</v>
       </c>
       <c r="N34" t="n">
         <v>26.97507112301442</v>
@@ -33594,22 +33594,22 @@
         <v>24.91584422388333</v>
       </c>
       <c r="P34" t="n">
-        <v>21.31980907863028</v>
+        <v>21.31980907863027</v>
       </c>
       <c r="Q34" t="n">
-        <v>14.76073071431627</v>
+        <v>14.76073071431626</v>
       </c>
       <c r="R34" t="n">
-        <v>7.926020422647728</v>
+        <v>7.926020422647727</v>
       </c>
       <c r="S34" t="n">
-        <v>3.072013981038353</v>
+        <v>3.072013981038352</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7531802666082555</v>
+        <v>0.7531802666082554</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009615067233296894</v>
+        <v>0.009615067233296892</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,34 +33646,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3929776222654</v>
+        <v>0.3929776222653999</v>
       </c>
       <c r="H35" t="n">
         <v>4.024582074025528</v>
       </c>
       <c r="I35" t="n">
-        <v>15.15026978238685</v>
+        <v>15.15026978238684</v>
       </c>
       <c r="J35" t="n">
         <v>33.35348446774802</v>
       </c>
       <c r="K35" t="n">
-        <v>49.98822721824241</v>
+        <v>49.9882272182424</v>
       </c>
       <c r="L35" t="n">
-        <v>62.01481612564716</v>
+        <v>62.01481612564715</v>
       </c>
       <c r="M35" t="n">
         <v>69.00343191560945</v>
       </c>
       <c r="N35" t="n">
-        <v>70.11997958487103</v>
+        <v>70.11997958487102</v>
       </c>
       <c r="O35" t="n">
         <v>66.21230835346945</v>
       </c>
       <c r="P35" t="n">
-        <v>56.51067330379239</v>
+        <v>56.51067330379238</v>
       </c>
       <c r="Q35" t="n">
         <v>42.43716220641274</v>
@@ -33682,13 +33682,13 @@
         <v>24.68538056462895</v>
       </c>
       <c r="S35" t="n">
-        <v>8.954977567372811</v>
+        <v>8.95497756737281</v>
       </c>
       <c r="T35" t="n">
         <v>1.720259541466789</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03143820978123199</v>
+        <v>0.03143820978123198</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2102615645922847</v>
+        <v>0.2102615645922846</v>
       </c>
       <c r="H36" t="n">
         <v>2.030684058036013</v>
       </c>
       <c r="I36" t="n">
-        <v>7.239268780918574</v>
+        <v>7.239268780918573</v>
       </c>
       <c r="J36" t="n">
         <v>19.86510685474739</v>
@@ -33740,19 +33740,19 @@
         <v>33.95263168243046</v>
       </c>
       <c r="L36" t="n">
-        <v>45.65350331202217</v>
+        <v>45.65350331202216</v>
       </c>
       <c r="M36" t="n">
-        <v>53.27548502849248</v>
+        <v>53.27548502849247</v>
       </c>
       <c r="N36" t="n">
-        <v>54.68552859104338</v>
+        <v>54.68552859104337</v>
       </c>
       <c r="O36" t="n">
-        <v>50.0265749756038</v>
+        <v>50.02657497560379</v>
       </c>
       <c r="P36" t="n">
-        <v>40.15073683867935</v>
+        <v>40.15073683867934</v>
       </c>
       <c r="Q36" t="n">
         <v>26.8397042802362</v>
@@ -33764,7 +33764,7 @@
         <v>3.905516342317215</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8475016572820594</v>
+        <v>0.8475016572820593</v>
       </c>
       <c r="U36" t="n">
         <v>0.01383299767054505</v>
@@ -33810,7 +33810,7 @@
         <v>1.567255959027393</v>
       </c>
       <c r="I37" t="n">
-        <v>5.301107067957683</v>
+        <v>5.301107067957682</v>
       </c>
       <c r="J37" t="n">
         <v>12.46272964555831</v>
@@ -33819,10 +33819,10 @@
         <v>20.48009320692235</v>
       </c>
       <c r="L37" t="n">
-        <v>26.20746825555621</v>
+        <v>26.2074682555562</v>
       </c>
       <c r="M37" t="n">
-        <v>27.63210071728969</v>
+        <v>27.63210071728968</v>
       </c>
       <c r="N37" t="n">
         <v>26.97507112301442</v>
@@ -33831,22 +33831,22 @@
         <v>24.91584422388333</v>
       </c>
       <c r="P37" t="n">
-        <v>21.31980907863028</v>
+        <v>21.31980907863027</v>
       </c>
       <c r="Q37" t="n">
-        <v>14.76073071431627</v>
+        <v>14.76073071431626</v>
       </c>
       <c r="R37" t="n">
-        <v>7.926020422647728</v>
+        <v>7.926020422647727</v>
       </c>
       <c r="S37" t="n">
-        <v>3.072013981038353</v>
+        <v>3.072013981038352</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7531802666082555</v>
+        <v>0.7531802666082554</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009615067233296894</v>
+        <v>0.009615067233296892</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,34 +33883,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3929776222654</v>
+        <v>0.3929776222653999</v>
       </c>
       <c r="H38" t="n">
         <v>4.024582074025528</v>
       </c>
       <c r="I38" t="n">
-        <v>15.15026978238685</v>
+        <v>15.15026978238684</v>
       </c>
       <c r="J38" t="n">
         <v>33.35348446774802</v>
       </c>
       <c r="K38" t="n">
-        <v>49.98822721824241</v>
+        <v>49.9882272182424</v>
       </c>
       <c r="L38" t="n">
-        <v>62.01481612564716</v>
+        <v>62.01481612564715</v>
       </c>
       <c r="M38" t="n">
         <v>69.00343191560945</v>
       </c>
       <c r="N38" t="n">
-        <v>70.11997958487103</v>
+        <v>70.11997958487102</v>
       </c>
       <c r="O38" t="n">
         <v>66.21230835346945</v>
       </c>
       <c r="P38" t="n">
-        <v>56.51067330379239</v>
+        <v>56.51067330379238</v>
       </c>
       <c r="Q38" t="n">
         <v>42.43716220641274</v>
@@ -33919,13 +33919,13 @@
         <v>24.68538056462895</v>
       </c>
       <c r="S38" t="n">
-        <v>8.954977567372811</v>
+        <v>8.95497756737281</v>
       </c>
       <c r="T38" t="n">
         <v>1.720259541466789</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03143820978123199</v>
+        <v>0.03143820978123198</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2102615645922847</v>
+        <v>0.2102615645922846</v>
       </c>
       <c r="H39" t="n">
         <v>2.030684058036013</v>
       </c>
       <c r="I39" t="n">
-        <v>7.239268780918574</v>
+        <v>7.239268780918573</v>
       </c>
       <c r="J39" t="n">
         <v>19.86510685474739</v>
@@ -33977,19 +33977,19 @@
         <v>33.95263168243046</v>
       </c>
       <c r="L39" t="n">
-        <v>45.65350331202217</v>
+        <v>45.65350331202216</v>
       </c>
       <c r="M39" t="n">
-        <v>53.27548502849248</v>
+        <v>53.27548502849247</v>
       </c>
       <c r="N39" t="n">
-        <v>54.68552859104338</v>
+        <v>54.68552859104337</v>
       </c>
       <c r="O39" t="n">
-        <v>50.0265749756038</v>
+        <v>50.02657497560379</v>
       </c>
       <c r="P39" t="n">
-        <v>40.15073683867935</v>
+        <v>40.15073683867934</v>
       </c>
       <c r="Q39" t="n">
         <v>26.8397042802362</v>
@@ -34001,7 +34001,7 @@
         <v>3.905516342317215</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8475016572820594</v>
+        <v>0.8475016572820593</v>
       </c>
       <c r="U39" t="n">
         <v>0.01383299767054505</v>
@@ -34047,7 +34047,7 @@
         <v>1.567255959027393</v>
       </c>
       <c r="I40" t="n">
-        <v>5.301107067957683</v>
+        <v>5.301107067957682</v>
       </c>
       <c r="J40" t="n">
         <v>12.46272964555831</v>
@@ -34056,10 +34056,10 @@
         <v>20.48009320692235</v>
       </c>
       <c r="L40" t="n">
-        <v>26.20746825555621</v>
+        <v>26.2074682555562</v>
       </c>
       <c r="M40" t="n">
-        <v>27.63210071728969</v>
+        <v>27.63210071728968</v>
       </c>
       <c r="N40" t="n">
         <v>26.97507112301442</v>
@@ -34068,22 +34068,22 @@
         <v>24.91584422388333</v>
       </c>
       <c r="P40" t="n">
-        <v>21.31980907863028</v>
+        <v>21.31980907863027</v>
       </c>
       <c r="Q40" t="n">
-        <v>14.76073071431627</v>
+        <v>14.76073071431626</v>
       </c>
       <c r="R40" t="n">
-        <v>7.926020422647728</v>
+        <v>7.926020422647727</v>
       </c>
       <c r="S40" t="n">
-        <v>3.072013981038353</v>
+        <v>3.072013981038352</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7531802666082555</v>
+        <v>0.7531802666082554</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009615067233296894</v>
+        <v>0.009615067233296892</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,34 +34120,34 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3929776222654</v>
+        <v>0.3929776222653999</v>
       </c>
       <c r="H41" t="n">
         <v>4.024582074025528</v>
       </c>
       <c r="I41" t="n">
-        <v>15.15026978238685</v>
+        <v>15.15026978238684</v>
       </c>
       <c r="J41" t="n">
         <v>33.35348446774802</v>
       </c>
       <c r="K41" t="n">
-        <v>49.98822721824241</v>
+        <v>49.9882272182424</v>
       </c>
       <c r="L41" t="n">
-        <v>62.01481612564716</v>
+        <v>62.01481612564715</v>
       </c>
       <c r="M41" t="n">
         <v>69.00343191560945</v>
       </c>
       <c r="N41" t="n">
-        <v>70.11997958487103</v>
+        <v>70.11997958487102</v>
       </c>
       <c r="O41" t="n">
         <v>66.21230835346945</v>
       </c>
       <c r="P41" t="n">
-        <v>56.51067330379239</v>
+        <v>56.51067330379238</v>
       </c>
       <c r="Q41" t="n">
         <v>42.43716220641274</v>
@@ -34156,13 +34156,13 @@
         <v>24.68538056462895</v>
       </c>
       <c r="S41" t="n">
-        <v>8.954977567372811</v>
+        <v>8.95497756737281</v>
       </c>
       <c r="T41" t="n">
         <v>1.720259541466789</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03143820978123199</v>
+        <v>0.03143820978123198</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2102615645922847</v>
+        <v>0.2102615645922846</v>
       </c>
       <c r="H42" t="n">
         <v>2.030684058036013</v>
       </c>
       <c r="I42" t="n">
-        <v>7.239268780918574</v>
+        <v>7.239268780918573</v>
       </c>
       <c r="J42" t="n">
         <v>19.86510685474739</v>
@@ -34214,19 +34214,19 @@
         <v>33.95263168243046</v>
       </c>
       <c r="L42" t="n">
-        <v>45.65350331202217</v>
+        <v>45.65350331202216</v>
       </c>
       <c r="M42" t="n">
-        <v>53.27548502849248</v>
+        <v>53.27548502849247</v>
       </c>
       <c r="N42" t="n">
-        <v>54.68552859104338</v>
+        <v>54.68552859104337</v>
       </c>
       <c r="O42" t="n">
-        <v>50.0265749756038</v>
+        <v>50.02657497560379</v>
       </c>
       <c r="P42" t="n">
-        <v>40.15073683867935</v>
+        <v>40.15073683867934</v>
       </c>
       <c r="Q42" t="n">
         <v>26.8397042802362</v>
@@ -34238,7 +34238,7 @@
         <v>3.905516342317215</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8475016572820594</v>
+        <v>0.8475016572820593</v>
       </c>
       <c r="U42" t="n">
         <v>0.01383299767054505</v>
@@ -34284,7 +34284,7 @@
         <v>1.567255959027393</v>
       </c>
       <c r="I43" t="n">
-        <v>5.301107067957683</v>
+        <v>5.301107067957682</v>
       </c>
       <c r="J43" t="n">
         <v>12.46272964555831</v>
@@ -34293,10 +34293,10 @@
         <v>20.48009320692235</v>
       </c>
       <c r="L43" t="n">
-        <v>26.20746825555621</v>
+        <v>26.2074682555562</v>
       </c>
       <c r="M43" t="n">
-        <v>27.63210071728969</v>
+        <v>27.63210071728968</v>
       </c>
       <c r="N43" t="n">
         <v>26.97507112301442</v>
@@ -34305,22 +34305,22 @@
         <v>24.91584422388333</v>
       </c>
       <c r="P43" t="n">
-        <v>21.31980907863028</v>
+        <v>21.31980907863027</v>
       </c>
       <c r="Q43" t="n">
-        <v>14.76073071431627</v>
+        <v>14.76073071431626</v>
       </c>
       <c r="R43" t="n">
-        <v>7.926020422647728</v>
+        <v>7.926020422647727</v>
       </c>
       <c r="S43" t="n">
-        <v>3.072013981038353</v>
+        <v>3.072013981038352</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7531802666082555</v>
+        <v>0.7531802666082554</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009615067233296894</v>
+        <v>0.009615067233296892</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,34 +34357,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3929776222654</v>
+        <v>0.3929776222653999</v>
       </c>
       <c r="H44" t="n">
         <v>4.024582074025528</v>
       </c>
       <c r="I44" t="n">
-        <v>15.15026978238685</v>
+        <v>15.15026978238684</v>
       </c>
       <c r="J44" t="n">
         <v>33.35348446774802</v>
       </c>
       <c r="K44" t="n">
-        <v>49.98822721824241</v>
+        <v>49.9882272182424</v>
       </c>
       <c r="L44" t="n">
-        <v>62.01481612564716</v>
+        <v>62.01481612564715</v>
       </c>
       <c r="M44" t="n">
         <v>69.00343191560945</v>
       </c>
       <c r="N44" t="n">
-        <v>70.11997958487103</v>
+        <v>70.11997958487102</v>
       </c>
       <c r="O44" t="n">
         <v>66.21230835346945</v>
       </c>
       <c r="P44" t="n">
-        <v>56.51067330379239</v>
+        <v>56.51067330379238</v>
       </c>
       <c r="Q44" t="n">
         <v>42.43716220641274</v>
@@ -34393,13 +34393,13 @@
         <v>24.68538056462895</v>
       </c>
       <c r="S44" t="n">
-        <v>8.954977567372811</v>
+        <v>8.95497756737281</v>
       </c>
       <c r="T44" t="n">
         <v>1.720259541466789</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03143820978123199</v>
+        <v>0.03143820978123198</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2102615645922847</v>
+        <v>0.2102615645922846</v>
       </c>
       <c r="H45" t="n">
         <v>2.030684058036013</v>
       </c>
       <c r="I45" t="n">
-        <v>7.239268780918574</v>
+        <v>7.239268780918573</v>
       </c>
       <c r="J45" t="n">
         <v>19.86510685474739</v>
@@ -34451,19 +34451,19 @@
         <v>33.95263168243046</v>
       </c>
       <c r="L45" t="n">
-        <v>45.65350331202217</v>
+        <v>45.65350331202216</v>
       </c>
       <c r="M45" t="n">
-        <v>53.27548502849248</v>
+        <v>53.27548502849247</v>
       </c>
       <c r="N45" t="n">
-        <v>54.68552859104338</v>
+        <v>54.68552859104337</v>
       </c>
       <c r="O45" t="n">
-        <v>50.0265749756038</v>
+        <v>50.02657497560379</v>
       </c>
       <c r="P45" t="n">
-        <v>40.15073683867935</v>
+        <v>40.15073683867934</v>
       </c>
       <c r="Q45" t="n">
         <v>26.8397042802362</v>
@@ -34475,7 +34475,7 @@
         <v>3.905516342317215</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8475016572820594</v>
+        <v>0.8475016572820593</v>
       </c>
       <c r="U45" t="n">
         <v>0.01383299767054505</v>
@@ -34521,7 +34521,7 @@
         <v>1.567255959027393</v>
       </c>
       <c r="I46" t="n">
-        <v>5.301107067957683</v>
+        <v>5.301107067957682</v>
       </c>
       <c r="J46" t="n">
         <v>12.46272964555831</v>
@@ -34530,10 +34530,10 @@
         <v>20.48009320692235</v>
       </c>
       <c r="L46" t="n">
-        <v>26.20746825555621</v>
+        <v>26.2074682555562</v>
       </c>
       <c r="M46" t="n">
-        <v>27.63210071728969</v>
+        <v>27.63210071728968</v>
       </c>
       <c r="N46" t="n">
         <v>26.97507112301442</v>
@@ -34542,22 +34542,22 @@
         <v>24.91584422388333</v>
       </c>
       <c r="P46" t="n">
-        <v>21.31980907863028</v>
+        <v>21.31980907863027</v>
       </c>
       <c r="Q46" t="n">
-        <v>14.76073071431627</v>
+        <v>14.76073071431626</v>
       </c>
       <c r="R46" t="n">
-        <v>7.926020422647728</v>
+        <v>7.926020422647727</v>
       </c>
       <c r="S46" t="n">
-        <v>3.072013981038353</v>
+        <v>3.072013981038352</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7531802666082555</v>
+        <v>0.7531802666082554</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009615067233296894</v>
+        <v>0.009615067233296892</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35155,7 +35155,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -35200,7 +35200,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3.199249640013477</v>
+        <v>3.069987028295762</v>
       </c>
       <c r="M9" t="n">
         <v>3.199249640013477</v>
       </c>
       <c r="N9" t="n">
-        <v>3.069987028295762</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.7968230676141</v>
+        <v>117.7968230676142</v>
       </c>
       <c r="K11" t="n">
-        <v>104.7398402740531</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="L11" t="n">
-        <v>45.02425689095459</v>
+        <v>45.02425689095458</v>
       </c>
       <c r="M11" t="n">
-        <v>79.26579708169221</v>
+        <v>169.1432949406317</v>
       </c>
       <c r="N11" t="n">
-        <v>73.63684901599584</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="O11" t="n">
         <v>32.25100787727062</v>
       </c>
       <c r="P11" t="n">
-        <v>178.6767168684039</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>104.5490699981222</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>37.15954971786351</v>
+        <v>37.15954971786346</v>
       </c>
       <c r="L12" t="n">
         <v>116.9217037372172</v>
@@ -35498,13 +35498,13 @@
         <v>181.6488449536301</v>
       </c>
       <c r="N12" t="n">
-        <v>185.8624891488177</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="O12" t="n">
         <v>131.2819396447024</v>
       </c>
       <c r="P12" t="n">
-        <v>83.06583387187574</v>
+        <v>83.06583387187572</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35574,19 +35574,19 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>5.607023563095358</v>
       </c>
       <c r="N13" t="n">
-        <v>142.1276562201841</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>157.3946026086466</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>136.5206326570884</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.01160124609488</v>
+        <v>68.01160124609491</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.7968230676141</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>45.02425689095459</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="M14" t="n">
-        <v>79.26579708169221</v>
+        <v>79.26579708169223</v>
       </c>
       <c r="N14" t="n">
-        <v>73.63684901599584</v>
+        <v>106.272868826375</v>
       </c>
       <c r="O14" t="n">
-        <v>136.9908481513237</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="P14" t="n">
         <v>178.6767168684039</v>
       </c>
       <c r="Q14" t="n">
-        <v>104.5490699981222</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>181.6488449536301</v>
       </c>
       <c r="N15" t="n">
-        <v>185.8624891488177</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="O15" t="n">
         <v>131.2819396447024</v>
@@ -35784,13 +35784,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>50.56208524020892</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>54.06859427869463</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>56.81785327247297</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>75.06933535753942</v>
       </c>
       <c r="K16" t="n">
-        <v>19.69089713191281</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>169.5616400614519</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>178.2813228815608</v>
+        <v>131.0159919260093</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35878,28 +35878,28 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.8519597482025</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>185.8624891488177</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="K17" t="n">
-        <v>185.8624891488177</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="L17" t="n">
-        <v>45.02425689095459</v>
+        <v>108.5003594958968</v>
       </c>
       <c r="M17" t="n">
         <v>79.26579708169221</v>
       </c>
       <c r="N17" t="n">
-        <v>73.63684901599584</v>
+        <v>73.63684901599582</v>
       </c>
       <c r="O17" t="n">
         <v>32.25100787727062</v>
       </c>
       <c r="P17" t="n">
-        <v>77.18551216235534</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35908,7 +35908,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>70.56136930561571</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>37.15954971786347</v>
+        <v>37.15954971786346</v>
       </c>
       <c r="L18" t="n">
         <v>116.9217037372172</v>
@@ -35972,13 +35972,13 @@
         <v>181.6488449536301</v>
       </c>
       <c r="N18" t="n">
-        <v>185.8624891488177</v>
+        <v>185.8624891488179</v>
       </c>
       <c r="O18" t="n">
         <v>131.2819396447023</v>
       </c>
       <c r="P18" t="n">
-        <v>83.06583387187574</v>
+        <v>83.06583387187572</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,16 +36121,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="L20" t="n">
-        <v>45.02425689095459</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="M20" t="n">
-        <v>185.8624891488177</v>
+        <v>79.26579708169221</v>
       </c>
       <c r="N20" t="n">
-        <v>73.63684901599584</v>
+        <v>73.63684901599582</v>
       </c>
       <c r="O20" t="n">
         <v>32.25100787727062</v>
@@ -36139,19 +36139,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>185.8624891488177</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>18.63657832597717</v>
+        <v>102.6467630253823</v>
       </c>
       <c r="S20" t="n">
-        <v>70.56136930561577</v>
+        <v>70.56136930561571</v>
       </c>
       <c r="T20" t="n">
-        <v>75.86546365778071</v>
+        <v>5.853596470514634</v>
       </c>
       <c r="U20" t="n">
-        <v>48.23985770287639</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>37.15954971786347</v>
+        <v>37.15954971786346</v>
       </c>
       <c r="L21" t="n">
         <v>116.9217037372172</v>
@@ -36209,13 +36209,13 @@
         <v>181.6488449536301</v>
       </c>
       <c r="N21" t="n">
-        <v>185.8624891488177</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="O21" t="n">
-        <v>131.2819396447024</v>
+        <v>131.2819396447023</v>
       </c>
       <c r="P21" t="n">
-        <v>83.06583387187574</v>
+        <v>83.06583387187572</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.8519597482025</v>
+        <v>56.85195974820245</v>
       </c>
       <c r="J23" t="n">
-        <v>185.8624891488176</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>45.02425689095459</v>
+        <v>45.02425689095458</v>
       </c>
       <c r="M23" t="n">
         <v>79.26579708169221</v>
       </c>
       <c r="N23" t="n">
-        <v>73.63684901599584</v>
+        <v>73.63684901599582</v>
       </c>
       <c r="O23" t="n">
-        <v>32.25100787727062</v>
+        <v>109.436520039626</v>
       </c>
       <c r="P23" t="n">
-        <v>68.38131064489976</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.56136930561577</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>75.86546365778071</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>48.23985770287639</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>37.15954971786347</v>
+        <v>37.15954971786346</v>
       </c>
       <c r="L24" t="n">
         <v>116.9217037372172</v>
       </c>
       <c r="M24" t="n">
-        <v>181.6488449536297</v>
+        <v>181.6488449536301</v>
       </c>
       <c r="N24" t="n">
-        <v>185.8624891488176</v>
+        <v>185.8624891488179</v>
       </c>
       <c r="O24" t="n">
-        <v>131.2819396447024</v>
+        <v>131.2819396447023</v>
       </c>
       <c r="P24" t="n">
-        <v>83.06583387187574</v>
+        <v>83.06583387187572</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>293.4774143486273</v>
       </c>
       <c r="N26" t="n">
-        <v>287.848466282931</v>
+        <v>287.8484662829309</v>
       </c>
       <c r="O26" t="n">
         <v>246.4626251442057</v>
@@ -36616,7 +36616,7 @@
         <v>123.0159517741377</v>
       </c>
       <c r="R26" t="n">
-        <v>18.46688177601567</v>
+        <v>18.46688177601552</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>37.15954971786347</v>
+        <v>37.15954971786346</v>
       </c>
       <c r="L27" t="n">
         <v>116.9217037372172</v>
@@ -36686,10 +36686,10 @@
         <v>205.0624984239994</v>
       </c>
       <c r="O27" t="n">
-        <v>131.2819396447024</v>
+        <v>131.2819396447023</v>
       </c>
       <c r="P27" t="n">
-        <v>83.06583387187574</v>
+        <v>83.06583387187572</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36732,7 +36732,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>69.02896701622441</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>39.48844963352158</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>158.4880044547646</v>
       </c>
       <c r="M28" t="n">
-        <v>188.0285218374675</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>136.2637048436296</v>
       </c>
       <c r="K29" t="n">
-        <v>205.7364535564159</v>
+        <v>205.736453556416</v>
       </c>
       <c r="L29" t="n">
         <v>259.2358741578897</v>
@@ -36847,13 +36847,13 @@
         <v>246.4626251442057</v>
       </c>
       <c r="P29" t="n">
-        <v>197.1435986444193</v>
+        <v>197.1435986444194</v>
       </c>
       <c r="Q29" t="n">
         <v>123.0159517741377</v>
       </c>
       <c r="R29" t="n">
-        <v>18.46688177601547</v>
+        <v>18.46688177601549</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>37.15954971786347</v>
+        <v>37.15954971786346</v>
       </c>
       <c r="L30" t="n">
         <v>116.9217037372172</v>
@@ -36923,10 +36923,10 @@
         <v>205.0624984239994</v>
       </c>
       <c r="O30" t="n">
-        <v>131.2819396447024</v>
+        <v>131.2819396447023</v>
       </c>
       <c r="P30" t="n">
-        <v>83.06583387187574</v>
+        <v>83.06583387187572</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36993,16 +36993,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>51.65548708632738</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>51.65548708632724</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>175.8614843846621</v>
+        <v>175.861484384662</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>137.091414710494</v>
       </c>
       <c r="K32" t="n">
-        <v>206.5641634232803</v>
+        <v>186.4470386731653</v>
       </c>
       <c r="L32" t="n">
         <v>260.063584024754</v>
@@ -37087,7 +37087,7 @@
         <v>197.9713085112837</v>
       </c>
       <c r="Q32" t="n">
-        <v>103.7265368908872</v>
+        <v>123.843661641002</v>
       </c>
       <c r="R32" t="n">
         <v>19.29459164287982</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>37.15954971786347</v>
+        <v>37.15954971786346</v>
       </c>
       <c r="L33" t="n">
         <v>116.9217037372172</v>
@@ -37160,10 +37160,10 @@
         <v>205.0624984239994</v>
       </c>
       <c r="O33" t="n">
-        <v>131.2819396447024</v>
+        <v>131.2819396447023</v>
       </c>
       <c r="P33" t="n">
-        <v>83.06583387187574</v>
+        <v>83.06583387187572</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37221,7 +37221,7 @@
         <v>49.16012619838693</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>50.00099173177768</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37236,19 +37236,19 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>111.1120318773304</v>
       </c>
       <c r="O34" t="n">
-        <v>16.63001086341025</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>155.8152242999682</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>11.33221155427038</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,25 +37300,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>30.49883061753919</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>194.0904569623332</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>156.733914533071</v>
+        <v>260.5595671835774</v>
       </c>
       <c r="L35" t="n">
-        <v>45.02425689095459</v>
+        <v>260.5595671835774</v>
       </c>
       <c r="M35" t="n">
         <v>79.26579708169221</v>
       </c>
       <c r="N35" t="n">
-        <v>73.63684901599584</v>
+        <v>260.5595671835774</v>
       </c>
       <c r="O35" t="n">
-        <v>260.5595671835775</v>
+        <v>94.47247692702159</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37327,16 +37327,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>76.29363389471905</v>
+        <v>76.29363389471911</v>
       </c>
       <c r="S35" t="n">
-        <v>44.20824017495245</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>49.51233452711739</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>21.88672857221308</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>37.15954971786347</v>
+        <v>37.15954971786346</v>
       </c>
       <c r="L36" t="n">
         <v>116.9217037372172</v>
@@ -37397,10 +37397,10 @@
         <v>205.0624984239994</v>
       </c>
       <c r="O36" t="n">
-        <v>131.2819396447024</v>
+        <v>131.2819396447023</v>
       </c>
       <c r="P36" t="n">
-        <v>83.06583387187574</v>
+        <v>83.06583387187572</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>16.95594714761064</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>35.59928732075291</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37497,7 +37497,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>18.64334017314215</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>23.93648997590539</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>194.0904569623332</v>
+        <v>194.0904569623333</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>260.5595671835774</v>
       </c>
       <c r="L38" t="n">
-        <v>45.02425689095459</v>
+        <v>45.02425689095458</v>
       </c>
       <c r="M38" t="n">
-        <v>79.26579708169221</v>
+        <v>245.3057676311922</v>
       </c>
       <c r="N38" t="n">
-        <v>73.63684901599584</v>
+        <v>73.63684901599582</v>
       </c>
       <c r="O38" t="n">
         <v>32.25100787727062</v>
       </c>
       <c r="P38" t="n">
-        <v>254.970350763123</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>180.8427038928413</v>
       </c>
       <c r="R38" t="n">
-        <v>76.29363389471905</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>49.51233452711739</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>21.88672857221308</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>37.15954971786347</v>
+        <v>37.15954971786346</v>
       </c>
       <c r="L39" t="n">
         <v>116.9217037372172</v>
@@ -37634,10 +37634,10 @@
         <v>205.0624984239994</v>
       </c>
       <c r="O39" t="n">
-        <v>131.2819396447024</v>
+        <v>131.2819396447023</v>
       </c>
       <c r="P39" t="n">
-        <v>83.06583387187574</v>
+        <v>83.06583387187572</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>35.59928732075279</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37740,7 +37740,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>35.59928732075291</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -37777,34 +37777,34 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>163.591626344794</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>233.0643750575803</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>279.8095022505773</v>
+        <v>241.8001099544288</v>
       </c>
       <c r="M41" t="n">
-        <v>79.26579708169221</v>
+        <v>279.8095022505785</v>
       </c>
       <c r="N41" t="n">
-        <v>73.63684901599584</v>
+        <v>279.8095022505785</v>
       </c>
       <c r="O41" t="n">
-        <v>32.25100787727062</v>
+        <v>273.7905466453701</v>
       </c>
       <c r="P41" t="n">
-        <v>17.45182692055904</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.343873275302</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>45.79480327717985</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.70940955741326</v>
+        <v>13.70940955741325</v>
       </c>
       <c r="T41" t="n">
         <v>19.01350390957819</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>37.15954971786347</v>
+        <v>37.15954971786346</v>
       </c>
       <c r="L42" t="n">
         <v>116.9217037372172</v>
@@ -37871,10 +37871,10 @@
         <v>205.0624984239994</v>
       </c>
       <c r="O42" t="n">
-        <v>131.2819396447024</v>
+        <v>131.2819396447023</v>
       </c>
       <c r="P42" t="n">
-        <v>83.06583387187574</v>
+        <v>83.06583387187572</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>39.89925960389561</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37956,16 +37956,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>101.4773994026108</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.8324231885704</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.994073247327989</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>17.75164336281675</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>145.956316263774</v>
+        <v>125.2146733060759</v>
       </c>
       <c r="K44" t="n">
-        <v>233.0643750575804</v>
+        <v>233.0643750575803</v>
       </c>
       <c r="L44" t="n">
-        <v>45.02425689095459</v>
+        <v>279.8095022505785</v>
       </c>
       <c r="M44" t="n">
         <v>79.26579708169221</v>
       </c>
       <c r="N44" t="n">
-        <v>73.63684901599584</v>
+        <v>279.8095022505785</v>
       </c>
       <c r="O44" t="n">
-        <v>273.7905466453701</v>
+        <v>32.25100787727062</v>
       </c>
       <c r="P44" t="n">
-        <v>224.4715201455838</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>45.79480327717985</v>
       </c>
       <c r="S44" t="n">
-        <v>13.70940955741331</v>
+        <v>13.70940955741325</v>
       </c>
       <c r="T44" t="n">
-        <v>19.01350390957825</v>
+        <v>19.01350390957819</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>37.15954971786347</v>
+        <v>37.15954971786346</v>
       </c>
       <c r="L45" t="n">
         <v>116.9217037372172</v>
@@ -38108,10 +38108,10 @@
         <v>205.0624984239994</v>
       </c>
       <c r="O45" t="n">
-        <v>131.2819396447024</v>
+        <v>131.2819396447023</v>
       </c>
       <c r="P45" t="n">
-        <v>83.06583387187574</v>
+        <v>83.06583387187572</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>101.4773994026106</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>101.4773994026107</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
